--- a/imports/vpl-fnl_pjt_data.xlsx
+++ b/imports/vpl-fnl_pjt_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roder\source\year 4 repos\HCI-FNL_PJT\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7196A7A6-AD61-4B1A-BC3B-B1F0F13A2060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C2502-05EA-4CBC-81EA-D49BE157EF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
   </bookViews>
@@ -34,24 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Participant</t>
   </si>
   <si>
-    <t>TBD01</t>
-  </si>
-  <si>
-    <t>TBD02</t>
-  </si>
-  <si>
-    <t>TBD03</t>
-  </si>
-  <si>
-    <t>TBD04</t>
-  </si>
-  <si>
-    <t>TBDB05</t>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>A-&gt;B</t>
+  </si>
+  <si>
+    <t>B-&gt;A</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Kills</t>
+  </si>
+  <si>
+    <t>Hit_Percent</t>
+  </si>
+  <si>
+    <t>Shots_Hit</t>
+  </si>
+  <si>
+    <t>Shots_Fired</t>
   </si>
 </sst>
 </file>
@@ -403,18 +421,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DA4086-D66D-4A32-8F38-A033B2F7B296}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,146 +443,268 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>1</f>
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2">
-        <f>1</f>
-        <v>1</v>
+        <v>10.5</v>
       </c>
       <c r="E2">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <f>1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>G2/F2*100</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:F6" si="0">B2+1</f>
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="D3:G5" si="0">D2+1</f>
+        <v>11.5</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="1">G3/F3*100</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A6" si="1">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F4">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>15.789473684210526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13.5</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F5">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f>G5/F5*100</f>
+        <v>21.052631578947366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:E6" si="2">D5+1</f>
+        <v>14.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
+      <c r="F6">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>G6/F6*100</f>
+        <v>5.2631578947368416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
+      <c r="D7">
+        <f t="shared" ref="D7:E7" si="3">D6+1</f>
+        <v>15.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:H7" si="4">G6+1</f>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H8" si="5">G7/F7*100</f>
+        <v>10.526315789473683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="D8">
+        <f t="shared" ref="D8:E8" si="6">D7+1</f>
+        <v>16.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:H8" si="7">G7+1</f>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>15.789473684210526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:E9" si="8">D8+1</f>
+        <v>17.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:H9" si="9">G8+1</f>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f>G9/F9*100</f>
+        <v>21.052631578947366</v>
       </c>
     </row>
   </sheetData>

--- a/imports/vpl-fnl_pjt_data.xlsx
+++ b/imports/vpl-fnl_pjt_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roder\source\year 4 repos\HCI-FNL_PJT\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C2502-05EA-4CBC-81EA-D49BE157EF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C97652-7D20-43A6-A1A1-54FFB4C51591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="7500" windowHeight="11112" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Participant</t>
   </si>
@@ -76,7 +76,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,14 +115,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DA4086-D66D-4A32-8F38-A033B2F7B296}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,22 +490,20 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>10.5</v>
+        <v>31.895</v>
       </c>
       <c r="E2">
-        <f>1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f>G2/F2*100</f>
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2/F2</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -502,23 +517,20 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:G5" si="0">D2+1</f>
-        <v>11.5</v>
+        <v>102.792</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H4" si="1">G3/F3*100</f>
-        <v>13.333333333333334</v>
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3/F3</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -526,30 +538,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>144.64099999999999</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <f>19</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>15.789473684210526</v>
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H9" si="0">G4/F4</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -557,30 +565,26 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
+        <v>35.966999999999999</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <f>19</f>
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <f>G5/F5*100</f>
-        <v>21.052631578947366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -594,24 +598,20 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:E6" si="2">D5+1</f>
-        <v>14.5</v>
+        <v>83.334000000000003</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <f>19</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <f>G6/F6*100</f>
-        <v>5.2631578947368416</v>
+        <v>12</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -625,24 +625,20 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:E7" si="3">D6+1</f>
-        <v>15.5</v>
+        <v>240.61199999999999</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <f>19</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:H7" si="4">G6+1</f>
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H8" si="5">G7/F7*100</f>
-        <v>10.526315789473683</v>
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -650,30 +646,26 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:E8" si="6">D7+1</f>
-        <v>16.5</v>
+        <v>47.143000000000001</v>
       </c>
       <c r="E8">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <f>19</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:H8" si="7">G7+1</f>
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="5"/>
-        <v>15.789473684210526</v>
+        <v>9</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -681,30 +673,264 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:E9" si="8">D8+1</f>
+        <v>64.253</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="E10" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f>G10/F10*100</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <f>D10+2</f>
+        <v>12.5</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ref="D11:G13" si="1">E10+1</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11:H12" si="2">G11/F11*100</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <f>G13/F13*100</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:E14" si="3">D13+1</f>
+        <v>15.5</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <f>G14/F14*100</f>
+        <v>3.7735849056603774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:E15" si="4">D14+1</f>
+        <v>16.5</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15" si="5">G14+1</f>
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15:H16" si="6">G15/F15*100</f>
+        <v>42.857142857142854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:E16" si="7">D15+1</f>
         <v>17.5</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="8"/>
+      <c r="E16" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16" si="8">G15+1</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="F9">
-        <f>19</f>
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9:H9" si="9">G8+1</f>
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <f>G9/F9*100</f>
-        <v>21.052631578947366</v>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:E17" si="9">D16+1</f>
+        <v>18.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17" si="10">G16+1</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <f>G17/F17*100</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/imports/vpl-fnl_pjt_data.xlsx
+++ b/imports/vpl-fnl_pjt_data.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roder\source\year 4 repos\HCI-FNL_PJT\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C97652-7D20-43A6-A1A1-54FFB4C51591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149BF0B8-D9B3-42D7-8DA2-ED9A1A6A6387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="7500" windowHeight="11112" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="SUS" sheetId="2" r:id="rId2"/>
+    <sheet name="Questionnaire" sheetId="3" r:id="rId3"/>
+    <sheet name="Info" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="45">
   <si>
     <t>Participant</t>
   </si>
@@ -71,12 +74,111 @@
   <si>
     <t>Shots_Fired</t>
   </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>1. I feel accomplished?</t>
+  </si>
+  <si>
+    <t>2. I feel happy?</t>
+  </si>
+  <si>
+    <t>3. I feel like I could have done more?</t>
+  </si>
+  <si>
+    <t>4. I felt frustrated?</t>
+  </si>
+  <si>
+    <t>5. I felt that I wasted my time?</t>
+  </si>
+  <si>
+    <t>6. I felt exhausted?</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Information on the pages in this spreadsheet are as follows.</t>
+  </si>
+  <si>
+    <t>This spreadsheet is read into the program by R, which is does based on the page names.</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>The results from playing the game. These values are shown on the results screen of the game.</t>
+  </si>
+  <si>
+    <t>The HCI project only considers the following columns: Participant, Order, Course, Time.</t>
+  </si>
+  <si>
+    <t>All other information is included, but is not used for the HCI project.</t>
+  </si>
+  <si>
+    <t>SUS</t>
+  </si>
+  <si>
+    <t>It is read into the project for the diverging stacked barcharts, and related calculations.</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Do not read this page into R. This is for explaining the other sheets only.</t>
+  </si>
+  <si>
+    <t>A self developed questionnaire for the project.</t>
+  </si>
+  <si>
+    <t>The System Usability Scale (SUS) is a standard questionnaire for measuring project effectiveness.</t>
+  </si>
+  <si>
+    <t>Ranks range from 0 to 4 (5 options total), with the lowest being "Strongly Disagree" and the highest being "Strongly Agree".</t>
+  </si>
+  <si>
+    <t>Organized as follows: Player -&gt; Question -&gt; Course</t>
+  </si>
+  <si>
+    <t>1. I think that I would like to use this system frequently.</t>
+  </si>
+  <si>
+    <t>2. I found the system unnecessarily complex.</t>
+  </si>
+  <si>
+    <t>3. I thought the system was easy to use.</t>
+  </si>
+  <si>
+    <t>4. I think that I would need the support of a technical person to be able to use this system.</t>
+  </si>
+  <si>
+    <t>5. I found the various functions in this system were well integrated.</t>
+  </si>
+  <si>
+    <t>6. I thought there was too much inconsistency in this system.</t>
+  </si>
+  <si>
+    <t>7. I would imagine that most people would learn to use this system very quickly.</t>
+  </si>
+  <si>
+    <t>8. I found the system very cumbersome to use.</t>
+  </si>
+  <si>
+    <t>9. I felt very confident using the system.</t>
+  </si>
+  <si>
+    <t>10. I needed to learn a lot of things before I could get going with this system.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +189,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,10 +237,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DA4086-D66D-4A32-8F38-A033B2F7B296}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,28 +574,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -936,4 +1057,5254 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD3DC0-0BAB-4632-81BA-A01285DC1771}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A12" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" ref="A13:A19" si="1">A3</f>
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f>A10</f>
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <f>A11</f>
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <f t="shared" ref="A22:A85" si="2">A12</f>
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="str">
+        <f>C2</f>
+        <v>A</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ref="C23:C86" si="3">C3</f>
+        <v>A</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <f>A30</f>
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <f t="shared" ref="A86:A149" si="4">A76</f>
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" ref="C87:C150" si="5">C67</f>
+        <v>A</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>41</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>42</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>42</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>42</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>42</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <f t="shared" ref="A150:A201" si="6">A140</f>
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="5">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" ref="C151:C201" si="7">C131</f>
+        <v>A</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>42</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="5">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
+        <v>42</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>42</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>42</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>42</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>42</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>42</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>43</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="5">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
+        <v>43</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>43</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>43</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>43</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>43</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B170" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="5">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>43</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>43</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
+        <v>43</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>43</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>43</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="5">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>43</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="5">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>43</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>43</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>43</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="5">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>43</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B182" t="s">
+        <v>44</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B183" t="s">
+        <v>44</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
+        <v>44</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>44</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="5">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>44</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>44</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="5">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>44</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B189" t="s">
+        <v>44</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B190" t="s">
+        <v>44</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B191" t="s">
+        <v>44</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B192" t="s">
+        <v>44</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="5">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>44</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B194" t="s">
+        <v>44</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B195" t="s">
+        <v>44</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>44</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="5">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B197" t="s">
+        <v>44</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="5">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>44</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>44</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="5">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>44</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="5">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>44</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6155F0-D76B-402B-AB6F-C6589B98D823}">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" ref="B12:B21" si="1">B6</f>
+        <v>1. I feel accomplished?</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" ref="A13:A60" si="2">A3</f>
+        <v>2</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>1. I feel accomplished?</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>1. I feel accomplished?</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>1. I feel accomplished?</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>1. I feel accomplished?</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>1. I feel accomplished?</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>1. I feel accomplished?</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>1. I feel accomplished?</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>A10</f>
+        <v>9</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>1. I feel accomplished?</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>A11</f>
+        <v>10</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>1. I feel accomplished?</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="str">
+        <f>C2</f>
+        <v>A</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ref="C23:C40" si="3">C3</f>
+        <v>A</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="str">
+        <f>C21</f>
+        <v>B</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" ref="C42:C105" si="4">C22</f>
+        <v>A</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="str">
+        <f>C34</f>
+        <v>B</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>A51</f>
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" ref="A62:A121" si="5">A52</f>
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f>A62</f>
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f>A70</f>
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" ref="C106:C121" si="6">C86</f>
+        <v>A</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81C51A-1511-417C-9AC3-4EF2A66959D1}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/imports/vpl-fnl_pjt_data.xlsx
+++ b/imports/vpl-fnl_pjt_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roder\source\year 4 repos\HCI-FNL_PJT\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149BF0B8-D9B3-42D7-8DA2-ED9A1A6A6387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF2259B-55D8-401E-AB82-D5AE7657F6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="45">
   <si>
     <t>Participant</t>
   </si>
@@ -79,24 +79,6 @@
   </si>
   <si>
     <t>Rank</t>
-  </si>
-  <si>
-    <t>1. I feel accomplished?</t>
-  </si>
-  <si>
-    <t>2. I feel happy?</t>
-  </si>
-  <si>
-    <t>3. I feel like I could have done more?</t>
-  </si>
-  <si>
-    <t>4. I felt frustrated?</t>
-  </si>
-  <si>
-    <t>5. I felt that I wasted my time?</t>
-  </si>
-  <si>
-    <t>6. I felt exhausted?</t>
   </si>
   <si>
     <t>Information</t>
@@ -144,34 +126,52 @@
     <t>Organized as follows: Player -&gt; Question -&gt; Course</t>
   </si>
   <si>
-    <t>1. I think that I would like to use this system frequently.</t>
+    <t>10. I needed to learn a lot of things before I could get going with this system.</t>
   </si>
   <si>
-    <t>2. I found the system unnecessarily complex.</t>
+    <t>01. I feel accomplished?</t>
   </si>
   <si>
-    <t>3. I thought the system was easy to use.</t>
+    <t>02. I feel happy?</t>
   </si>
   <si>
-    <t>4. I think that I would need the support of a technical person to be able to use this system.</t>
+    <t>03. I feel like I could have done more?</t>
   </si>
   <si>
-    <t>5. I found the various functions in this system were well integrated.</t>
+    <t>04. I felt frustrated?</t>
   </si>
   <si>
-    <t>6. I thought there was too much inconsistency in this system.</t>
+    <t>05. I felt that I wasted my time?</t>
   </si>
   <si>
-    <t>7. I would imagine that most people would learn to use this system very quickly.</t>
+    <t>06. I felt exhausted?</t>
   </si>
   <si>
-    <t>8. I found the system very cumbersome to use.</t>
+    <t>01. I think that I would like to use this system frequently.</t>
   </si>
   <si>
-    <t>9. I felt very confident using the system.</t>
+    <t>02. I found the system unnecessarily complex.</t>
   </si>
   <si>
-    <t>10. I needed to learn a lot of things before I could get going with this system.</t>
+    <t>03. I thought the system was easy to use.</t>
+  </si>
+  <si>
+    <t>04. I think that I would need the support of a technical person to be able to use this system.</t>
+  </si>
+  <si>
+    <t>05. I found the various functions in this system were well integrated.</t>
+  </si>
+  <si>
+    <t>06. I thought there was too much inconsistency in this system.</t>
+  </si>
+  <si>
+    <t>07. I would imagine that most people would learn to use this system very quickly.</t>
+  </si>
+  <si>
+    <t>08. I found the system very cumbersome to use.</t>
+  </si>
+  <si>
+    <t>09. I felt very confident using the system.</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD3DC0-0BAB-4632-81BA-A01285DC1771}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,13 +1092,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1107,13 +1107,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1122,13 +1122,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1137,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1152,13 +1152,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1167,13 +1167,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1182,13 +1182,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,13 +1212,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,13 +1242,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,13 +1257,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,13 +1272,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1287,13 +1287,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,13 +1302,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1317,13 +1317,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1332,13 +1332,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1347,13 +1347,13 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1362,13 +1362,13 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1377,13 +1377,13 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1392,14 +1392,14 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="str">
         <f>C2</f>
         <v>A</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1408,14 +1408,14 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ref="C23:C86" si="3">C3</f>
         <v>A</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,14 +1424,14 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1440,14 +1440,14 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1456,14 +1456,14 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1472,14 +1472,14 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,14 +1488,14 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1504,14 +1504,14 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1520,14 +1520,14 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,14 +1536,14 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1552,14 +1552,14 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1568,14 +1568,14 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1584,14 +1584,14 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1600,14 +1600,14 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1616,14 +1616,14 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1632,14 +1632,14 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,14 +1648,14 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,14 +1664,14 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,14 +1680,14 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1696,14 +1696,14 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1712,14 +1712,14 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,14 +1728,14 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1744,14 +1744,14 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1760,14 +1760,14 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1776,14 +1776,14 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1792,14 +1792,14 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,14 +1808,14 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1824,14 +1824,14 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1840,14 +1840,14 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,14 +1856,14 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1872,14 +1872,14 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1888,14 +1888,14 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1904,14 +1904,14 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1920,14 +1920,14 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1936,14 +1936,14 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1952,14 +1952,14 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1968,14 +1968,14 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1984,14 +1984,14 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2000,14 +2000,14 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2016,14 +2016,14 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2032,14 +2032,14 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2048,14 +2048,14 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2064,14 +2064,14 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2080,14 +2080,14 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2096,14 +2096,14 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2112,14 +2112,14 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,14 +2128,14 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2144,14 +2144,14 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2160,14 +2160,14 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2176,14 +2176,14 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,14 +2192,14 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2208,14 +2208,14 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2224,14 +2224,14 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2240,14 +2240,14 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,14 +2256,14 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2272,14 +2272,14 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2288,14 +2288,14 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2304,14 +2304,14 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2320,14 +2320,14 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2336,14 +2336,14 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2352,14 +2352,14 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2368,14 +2368,14 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2384,14 +2384,14 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2400,14 +2400,14 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2416,14 +2416,14 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2432,14 +2432,14 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ref="C87:C150" si="5">C67</f>
         <v>A</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2448,14 +2448,14 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2464,14 +2464,14 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,14 +2480,14 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2496,14 +2496,14 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2512,14 +2512,14 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2528,14 +2528,14 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2544,14 +2544,14 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2560,14 +2560,14 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2576,14 +2576,14 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2592,14 +2592,14 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2608,14 +2608,14 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2624,14 +2624,14 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2640,14 +2640,14 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2656,14 +2656,14 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2672,14 +2672,14 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2688,14 +2688,14 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2704,14 +2704,14 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2720,14 +2720,14 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2736,14 +2736,14 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2752,14 +2752,14 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2768,14 +2768,14 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2784,14 +2784,14 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2800,14 +2800,14 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2816,14 +2816,14 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2832,14 +2832,14 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2848,14 +2848,14 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2864,14 +2864,14 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2880,14 +2880,14 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2896,14 +2896,14 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2912,14 +2912,14 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2928,14 +2928,14 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2944,14 +2944,14 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2960,14 +2960,14 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2976,14 +2976,14 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2992,14 +2992,14 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3008,14 +3008,14 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3024,14 +3024,14 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3040,14 +3040,14 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3056,14 +3056,14 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3072,14 +3072,14 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3088,14 +3088,14 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3104,14 +3104,14 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3120,14 +3120,14 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3136,14 +3136,14 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3152,14 +3152,14 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3168,14 +3168,14 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3184,14 +3184,14 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3200,14 +3200,14 @@
         <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3216,14 +3216,14 @@
         <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3232,14 +3232,14 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3248,14 +3248,14 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3264,14 +3264,14 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3280,14 +3280,14 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3296,14 +3296,14 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3312,14 +3312,14 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3328,14 +3328,14 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3344,14 +3344,14 @@
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3360,14 +3360,14 @@
         <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3376,14 +3376,14 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3392,14 +3392,14 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3408,14 +3408,14 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3424,14 +3424,14 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3440,14 +3440,14 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3456,14 +3456,14 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" ref="C151:C201" si="7">C131</f>
         <v>A</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3472,14 +3472,14 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3488,14 +3488,14 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3504,14 +3504,14 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3520,14 +3520,14 @@
         <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3536,14 +3536,14 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3552,14 +3552,14 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3568,14 +3568,14 @@
         <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3584,14 +3584,14 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3600,14 +3600,14 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3616,14 +3616,14 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3632,14 +3632,14 @@
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3648,14 +3648,14 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3664,14 +3664,14 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3680,14 +3680,14 @@
         <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3696,14 +3696,14 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3712,14 +3712,14 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3728,14 +3728,14 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3744,14 +3744,14 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3760,14 +3760,14 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3776,14 +3776,14 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3792,14 +3792,14 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3808,14 +3808,14 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3824,14 +3824,14 @@
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3840,14 +3840,14 @@
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3856,14 +3856,14 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3872,14 +3872,14 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3888,14 +3888,14 @@
         <v>7</v>
       </c>
       <c r="B178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3904,14 +3904,14 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3920,14 +3920,14 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3936,14 +3936,14 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3952,14 +3952,14 @@
         <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3968,14 +3968,14 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3984,14 +3984,14 @@
         <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4000,14 +4000,14 @@
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4016,14 +4016,14 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -4032,14 +4032,14 @@
         <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4048,14 +4048,14 @@
         <v>7</v>
       </c>
       <c r="B188" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4064,14 +4064,14 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4080,14 +4080,14 @@
         <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4096,14 +4096,14 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4112,14 +4112,14 @@
         <v>1</v>
       </c>
       <c r="B192" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4128,14 +4128,14 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4144,14 +4144,14 @@
         <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4160,14 +4160,14 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -4176,14 +4176,14 @@
         <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4192,14 +4192,14 @@
         <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4208,14 +4208,14 @@
         <v>7</v>
       </c>
       <c r="B198" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4224,14 +4224,14 @@
         <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4240,14 +4240,14 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4256,14 +4256,14 @@
         <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -4275,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6155F0-D76B-402B-AB6F-C6589B98D823}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4304,13 +4304,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4319,13 +4319,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4334,13 +4334,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4349,13 +4349,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4364,13 +4364,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4379,13 +4379,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4394,13 +4394,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4409,13 +4409,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4424,13 +4424,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4439,13 +4439,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4453,127 +4453,119 @@
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" ref="B12:B21" si="1">B6</f>
-        <v>1. I feel accomplished?</v>
+      <c r="B12" t="s">
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" ref="A13:A60" si="2">A3</f>
+        <f t="shared" ref="A13:A60" si="1">A3</f>
         <v>2</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>1. I feel accomplished?</v>
+      <c r="B13" t="s">
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>1. I feel accomplished?</v>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>1. I feel accomplished?</v>
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>1. I feel accomplished?</v>
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>1. I feel accomplished?</v>
+      <c r="B17" t="s">
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>1. I feel accomplished?</v>
+      <c r="B18" t="s">
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>1. I feel accomplished?</v>
+      <c r="B19" t="s">
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4581,15 +4573,14 @@
         <f>A10</f>
         <v>9</v>
       </c>
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>1. I feel accomplished?</v>
+      <c r="B20" t="s">
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4598,638 +4589,638 @@
         <v>10</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>1. I feel accomplished?</v>
+        <f t="shared" ref="B12:B21" si="2">B15</f>
+        <v>01. I feel accomplished?</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C22" t="str">
         <f>C2</f>
         <v>A</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ref="C23:C40" si="3">C3</f>
         <v>A</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C41" t="str">
         <f>C21</f>
         <v>B</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ref="C42:C105" si="4">C22</f>
         <v>A</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C54" t="str">
         <f>C34</f>
         <v>B</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -5238,14 +5229,14 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -5254,14 +5245,14 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -5270,14 +5261,14 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -5286,14 +5277,14 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -5302,14 +5293,14 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -5318,14 +5309,14 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -5334,14 +5325,14 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -5350,14 +5341,14 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -5366,14 +5357,14 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -5382,14 +5373,14 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -5398,14 +5389,14 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -5414,14 +5405,14 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -5430,14 +5421,14 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -5446,14 +5437,14 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -5462,14 +5453,14 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -5478,14 +5469,14 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -5494,14 +5485,14 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -5510,14 +5501,14 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -5526,14 +5517,14 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -5542,14 +5533,14 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -5558,14 +5549,14 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -5574,14 +5565,14 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -5590,14 +5581,14 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -5606,14 +5597,14 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -5622,14 +5613,14 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -5638,14 +5629,14 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -5654,14 +5645,14 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -5670,14 +5661,14 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -5686,14 +5677,14 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -5702,14 +5693,14 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -5718,14 +5709,14 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -5734,14 +5725,14 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -5750,14 +5741,14 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -5766,14 +5757,14 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -5782,14 +5773,14 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -5798,14 +5789,14 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -5814,14 +5805,14 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -5830,14 +5821,14 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -5846,14 +5837,14 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -5862,14 +5853,14 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -5878,14 +5869,14 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -5894,14 +5885,14 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -5910,14 +5901,14 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -5926,14 +5917,14 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -5942,14 +5933,14 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -5958,14 +5949,14 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" ref="C106:C121" si="6">C86</f>
         <v>A</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -5974,14 +5965,14 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="6"/>
         <v>A</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -5990,14 +5981,14 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="6"/>
         <v>A</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -6006,14 +5997,14 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="6"/>
         <v>A</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -6022,14 +6013,14 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="6"/>
         <v>A</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -6038,14 +6029,14 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="6"/>
         <v>A</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -6054,14 +6045,14 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -6070,14 +6061,14 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -6086,14 +6077,14 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -6102,14 +6093,14 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -6118,14 +6109,14 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -6134,14 +6125,14 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -6150,14 +6141,14 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -6166,14 +6157,14 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -6182,14 +6173,14 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -6198,14 +6189,14 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -6225,82 +6216,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/imports/vpl-fnl_pjt_data.xlsx
+++ b/imports/vpl-fnl_pjt_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roder\source\year 4 repos\HCI-FNL_PJT\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF2259B-55D8-401E-AB82-D5AE7657F6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56A9A5C-8828-48CC-AE01-4C47EFC0A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DA4086-D66D-4A32-8F38-A033B2F7B296}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,22 +827,20 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5</v>
+        <v>36.023000000000003</v>
       </c>
       <c r="E10" s="1">
-        <f>1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
         <v>10</v>
       </c>
       <c r="G10" s="1">
-        <f>1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1">
         <f>G10/F10*100</f>
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -856,23 +854,20 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <f>D10+2</f>
-        <v>12.5</v>
+        <v>31.962</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="D11:G13" si="1">E10+1</f>
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:H12" si="2">G11/F11*100</f>
-        <v>13.333333333333334</v>
+        <f t="shared" ref="H11:H12" si="1">G11/F11*100</f>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -886,22 +881,20 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>58.320999999999998</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F12" s="1">
         <v>25</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" ref="D11:G13" si="2">G11+1</f>
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -916,23 +909,20 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>24.635000000000002</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1">
         <f>G13/F13*100</f>
-        <v>13.333333333333334</v>
+        <v>36.84210526315789</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -946,22 +936,20 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:E14" si="3">D13+1</f>
-        <v>15.5</v>
+        <v>50.241999999999997</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1">
         <f>G14/F14*100</f>
-        <v>3.7735849056603774</v>
+        <v>22.222222222222221</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -975,23 +963,20 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:E15" si="4">D14+1</f>
-        <v>16.5</v>
+        <v>80.125</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15" si="5">G14+1</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15:H16" si="6">G15/F15*100</f>
-        <v>42.857142857142854</v>
+        <f t="shared" ref="H15:H16" si="3">G15/F15*100</f>
+        <v>61.904761904761905</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1005,23 +990,20 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:E16" si="7">D15+1</f>
-        <v>17.5</v>
+        <v>65.521000000000001</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16" si="8">G15+1</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1035,23 +1017,22 @@
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:E17" si="9">D16+1</f>
-        <v>18.5</v>
+        <v>72.513999999999996</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" ref="D17:E17" si="4">E16+1</f>
+        <v>21</v>
       </c>
       <c r="F17" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17" si="10">G16+1</f>
-        <v>5</v>
+        <f t="shared" ref="G17" si="5">G16+1</f>
+        <v>21</v>
       </c>
       <c r="H17" s="1">
         <f>G17/F17*100</f>
-        <v>50</v>
+        <v>52.5</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD3DC0-0BAB-4632-81BA-A01285DC1771}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+    <sheetView topLeftCell="A185" workbookViewId="0">
       <selection activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
@@ -1118,7 +1099,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A12" si="0">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -4589,7 +4570,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" ref="B12:B21" si="2">B15</f>
+        <f t="shared" ref="B21" si="2">B15</f>
         <v>01. I feel accomplished?</v>
       </c>
       <c r="C21" t="s">

--- a/imports/vpl-fnl_pjt_data.xlsx
+++ b/imports/vpl-fnl_pjt_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roder\source\year 4 repos\HCI-FNL_PJT\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56A9A5C-8828-48CC-AE01-4C47EFC0A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858AC0D-2256-411B-BEBC-8A21F9C3EC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
+    <workbookView xWindow="12048" yWindow="1032" windowWidth="7500" windowHeight="11112" activeTab="3" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="50">
   <si>
     <t>Participant</t>
   </si>
@@ -129,24 +129,6 @@
     <t>10. I needed to learn a lot of things before I could get going with this system.</t>
   </si>
   <si>
-    <t>01. I feel accomplished?</t>
-  </si>
-  <si>
-    <t>02. I feel happy?</t>
-  </si>
-  <si>
-    <t>03. I feel like I could have done more?</t>
-  </si>
-  <si>
-    <t>04. I felt frustrated?</t>
-  </si>
-  <si>
-    <t>05. I felt that I wasted my time?</t>
-  </si>
-  <si>
-    <t>06. I felt exhausted?</t>
-  </si>
-  <si>
     <t>01. I think that I would like to use this system frequently.</t>
   </si>
   <si>
@@ -172,6 +154,39 @@
   </si>
   <si>
     <t>09. I felt very confident using the system.</t>
+  </si>
+  <si>
+    <t>01. I enjoyed playing the game.</t>
+  </si>
+  <si>
+    <t>02. Overall, I feel that I am good at the game.</t>
+  </si>
+  <si>
+    <t>03. I feel that I improved the longer I played the game.</t>
+  </si>
+  <si>
+    <t>04. Overall, I felt I understood what I was doing in the game.</t>
+  </si>
+  <si>
+    <t>05. I felt time pressured (the timer factored into how I played the game).</t>
+  </si>
+  <si>
+    <t>06. I felt tense playing the game most of the time.</t>
+  </si>
+  <si>
+    <t>07. I felt the game was challenging.</t>
+  </si>
+  <si>
+    <t>08. I felt the failures were my fault, not the game’s fault.</t>
+  </si>
+  <si>
+    <t>Scores marked with a -1 have not been set, and in R will be turned into a 0.</t>
+  </si>
+  <si>
+    <t>Scores marked with a -1 are not available, and in R will be turned into a 0.</t>
+  </si>
+  <si>
+    <t>When the questions are asked, they are given in a 1 to 5 scale, so make sure to convert it to a 0 to 4 scale (i.e. x' = x - 1) for data entries.</t>
   </si>
 </sst>
 </file>
@@ -559,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DA4086-D66D-4A32-8F38-A033B2F7B296}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H9" si="0">G4/F4</f>
+        <f t="shared" ref="H4:H21" si="0">G4/F4</f>
         <v>1</v>
       </c>
     </row>
@@ -821,10 +836,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>36.023000000000003</v>
@@ -848,10 +863,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>31.962</v>
@@ -866,174 +881,389 @@
         <v>2</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:H12" si="1">G11/F11*100</f>
+        <f t="shared" ref="H11" si="1">G11/F11*100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>58.320999999999998</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>50.634</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21126760563380281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>27.974</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>15.811</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>12.699</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>28.516999999999999</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>22.797000000000001</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>24.518000000000001</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
         <v>25</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" ref="D11:G13" si="2">G11+1</f>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>28.576000000000001</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>23.035</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
-        <v>24.635000000000002</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1">
-        <f>G13/F13*100</f>
-        <v>36.84210526315789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>50.241999999999997</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1">
-        <v>27</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1">
-        <f>G14/F14*100</f>
-        <v>22.222222222222221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>80.125</v>
-      </c>
-      <c r="E15" s="1">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" ref="H15:H16" si="3">G15/F15*100</f>
-        <v>61.904761904761905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>65.521000000000001</v>
-      </c>
-      <c r="E16" s="1">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1">
-        <v>28</v>
-      </c>
-      <c r="G16" s="1">
-        <v>20</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="3"/>
-        <v>71.428571428571431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>72.513999999999996</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" ref="D17:E17" si="4">E16+1</f>
-        <v>21</v>
-      </c>
-      <c r="F17" s="1">
-        <v>40</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" ref="G17" si="5">G16+1</f>
-        <v>21</v>
-      </c>
-      <c r="H17" s="1">
-        <f>G17/F17*100</f>
-        <v>52.5</v>
-      </c>
+      <c r="D21">
+        <v>46.078000000000003</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1044,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD3DC0-0BAB-4632-81BA-A01285DC1771}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="K201" sqref="K201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1088,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1103,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1118,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1133,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1148,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1163,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1178,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1193,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1208,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1223,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1238,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1253,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1268,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1283,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1298,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1313,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1328,7 +1558,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1343,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1358,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1373,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C22" t="str">
         <f>C2</f>
@@ -1389,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ref="C23:C86" si="3">C3</f>
@@ -1405,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="3"/>
@@ -1421,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="3"/>
@@ -1437,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="3"/>
@@ -1453,7 +1683,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="3"/>
@@ -1469,7 +1699,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="3"/>
@@ -1485,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="3"/>
@@ -1501,7 +1731,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="3"/>
@@ -1517,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="3"/>
@@ -1533,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="3"/>
@@ -1549,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="3"/>
@@ -1565,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="3"/>
@@ -1581,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="3"/>
@@ -1597,7 +1827,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="3"/>
@@ -1613,7 +1843,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="3"/>
@@ -1629,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="3"/>
@@ -1645,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="3"/>
@@ -1661,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="3"/>
@@ -1677,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="3"/>
@@ -1693,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="3"/>
@@ -1709,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="3"/>
@@ -1725,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="3"/>
@@ -1741,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="3"/>
@@ -1757,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="3"/>
@@ -1773,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="3"/>
@@ -1789,7 +2019,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="3"/>
@@ -1805,7 +2035,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="3"/>
@@ -1821,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="3"/>
@@ -1837,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="3"/>
@@ -1853,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="3"/>
@@ -1869,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="3"/>
@@ -1885,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="3"/>
@@ -1901,7 +2131,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="3"/>
@@ -1917,7 +2147,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="3"/>
@@ -1933,7 +2163,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="3"/>
@@ -1949,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="3"/>
@@ -1965,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="3"/>
@@ -1981,7 +2211,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="3"/>
@@ -1997,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="3"/>
@@ -2013,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="3"/>
@@ -2029,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="3"/>
@@ -2045,7 +2275,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="3"/>
@@ -2061,7 +2291,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="3"/>
@@ -2077,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="3"/>
@@ -2093,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="3"/>
@@ -2109,7 +2339,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
@@ -2125,7 +2355,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
@@ -2141,7 +2371,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
@@ -2157,7 +2387,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
@@ -2173,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
@@ -2189,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
@@ -2205,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
@@ -2221,7 +2451,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
@@ -2237,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
@@ -2253,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
@@ -2269,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
@@ -2285,7 +2515,7 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>
@@ -2301,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="3"/>
@@ -2317,7 +2547,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="3"/>
@@ -2333,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="3"/>
@@ -2349,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="3"/>
@@ -2365,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="3"/>
@@ -2381,7 +2611,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="3"/>
@@ -2397,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="3"/>
@@ -2413,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ref="C87:C150" si="5">C67</f>
@@ -2429,7 +2659,7 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="5"/>
@@ -2445,7 +2675,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="5"/>
@@ -2461,7 +2691,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="5"/>
@@ -2477,7 +2707,7 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="5"/>
@@ -2493,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="5"/>
@@ -2509,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="5"/>
@@ -2525,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="5"/>
@@ -2541,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="5"/>
@@ -2557,7 +2787,7 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="5"/>
@@ -2573,7 +2803,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="5"/>
@@ -2589,7 +2819,7 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="5"/>
@@ -2605,7 +2835,7 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="5"/>
@@ -2621,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="5"/>
@@ -2637,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="5"/>
@@ -2653,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="5"/>
@@ -2669,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="5"/>
@@ -2685,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="5"/>
@@ -2701,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="5"/>
@@ -2717,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="5"/>
@@ -2733,7 +2963,7 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="5"/>
@@ -2749,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="5"/>
@@ -2765,7 +2995,7 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="5"/>
@@ -2781,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="5"/>
@@ -2797,7 +3027,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="5"/>
@@ -2813,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="5"/>
@@ -2829,7 +3059,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="5"/>
@@ -2845,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="5"/>
@@ -2861,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="5"/>
@@ -2877,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="5"/>
@@ -2893,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="5"/>
@@ -2909,7 +3139,7 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="5"/>
@@ -2925,7 +3155,7 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="5"/>
@@ -2941,7 +3171,7 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="5"/>
@@ -2957,7 +3187,7 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="5"/>
@@ -2973,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="5"/>
@@ -2989,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="5"/>
@@ -3005,7 +3235,7 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="5"/>
@@ -3021,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="5"/>
@@ -3037,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="5"/>
@@ -3053,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="5"/>
@@ -3069,7 +3299,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="5"/>
@@ -3085,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="5"/>
@@ -3101,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="5"/>
@@ -3117,7 +3347,7 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="5"/>
@@ -3133,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="5"/>
@@ -3149,7 +3379,7 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="5"/>
@@ -3165,7 +3395,7 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="5"/>
@@ -3181,7 +3411,7 @@
         <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="5"/>
@@ -3197,7 +3427,7 @@
         <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="5"/>
@@ -3213,7 +3443,7 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="5"/>
@@ -3229,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="5"/>
@@ -3245,7 +3475,7 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="5"/>
@@ -3261,7 +3491,7 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="5"/>
@@ -3277,7 +3507,7 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="5"/>
@@ -3293,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="5"/>
@@ -3309,7 +3539,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="5"/>
@@ -3325,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="5"/>
@@ -3341,7 +3571,7 @@
         <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="5"/>
@@ -3357,7 +3587,7 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="5"/>
@@ -3373,7 +3603,7 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="5"/>
@@ -3389,7 +3619,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="5"/>
@@ -3405,7 +3635,7 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="5"/>
@@ -3421,7 +3651,7 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="5"/>
@@ -3437,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" ref="C151:C201" si="7">C131</f>
@@ -3453,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="7"/>
@@ -3469,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="7"/>
@@ -3485,7 +3715,7 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="7"/>
@@ -3501,7 +3731,7 @@
         <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="7"/>
@@ -3517,7 +3747,7 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="7"/>
@@ -3533,7 +3763,7 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="7"/>
@@ -3549,7 +3779,7 @@
         <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="7"/>
@@ -3565,7 +3795,7 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="7"/>
@@ -3581,7 +3811,7 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="7"/>
@@ -3597,7 +3827,7 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="7"/>
@@ -3613,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="7"/>
@@ -3629,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="7"/>
@@ -3645,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="7"/>
@@ -3661,7 +3891,7 @@
         <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="7"/>
@@ -3677,7 +3907,7 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="7"/>
@@ -3693,7 +3923,7 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="7"/>
@@ -3709,7 +3939,7 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="7"/>
@@ -3725,7 +3955,7 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="7"/>
@@ -3741,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="7"/>
@@ -3757,7 +3987,7 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="7"/>
@@ -3773,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="7"/>
@@ -3789,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="7"/>
@@ -3805,7 +4035,7 @@
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="7"/>
@@ -3821,7 +4051,7 @@
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="7"/>
@@ -3837,7 +4067,7 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="7"/>
@@ -3853,7 +4083,7 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="7"/>
@@ -3869,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="B178" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="7"/>
@@ -3885,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="7"/>
@@ -3901,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="7"/>
@@ -3917,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="7"/>
@@ -4254,16 +4484,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6155F0-D76B-402B-AB6F-C6589B98D823}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="M119" sqref="M119"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4285,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -4300,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -4315,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -4330,7 +4560,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4345,7 +4575,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4360,7 +4590,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4375,7 +4605,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -4390,7 +4620,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4405,7 +4635,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4420,7 +4650,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -4435,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -4450,7 +4680,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -4465,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -4480,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -4495,7 +4725,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -4510,7 +4740,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -4525,7 +4755,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -4540,7 +4770,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -4555,7 +4785,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -4571,7 +4801,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" ref="B21" si="2">B15</f>
-        <v>01. I feel accomplished?</v>
+        <v>01. I enjoyed playing the game.</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -4586,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C22" t="str">
         <f>C2</f>
@@ -4602,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ref="C23:C40" si="3">C3</f>
@@ -4618,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="3"/>
@@ -4634,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="3"/>
@@ -4650,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="3"/>
@@ -4666,7 +4896,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="3"/>
@@ -4682,7 +4912,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="3"/>
@@ -4698,7 +4928,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="3"/>
@@ -4714,7 +4944,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="3"/>
@@ -4730,7 +4960,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="3"/>
@@ -4746,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="3"/>
@@ -4762,7 +4992,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="3"/>
@@ -4778,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="3"/>
@@ -4794,7 +5024,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="3"/>
@@ -4810,7 +5040,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="3"/>
@@ -4826,7 +5056,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="3"/>
@@ -4842,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="3"/>
@@ -4858,7 +5088,7 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="3"/>
@@ -4874,7 +5104,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="3"/>
@@ -4890,7 +5120,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C41" t="str">
         <f>C21</f>
@@ -4906,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ref="C42:C105" si="4">C22</f>
@@ -4922,7 +5152,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="4"/>
@@ -4938,7 +5168,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="4"/>
@@ -4954,7 +5184,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="4"/>
@@ -4970,7 +5200,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="4"/>
@@ -4986,7 +5216,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="4"/>
@@ -5002,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="4"/>
@@ -5018,7 +5248,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="4"/>
@@ -5034,7 +5264,7 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="4"/>
@@ -5050,7 +5280,7 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="4"/>
@@ -5066,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="4"/>
@@ -5082,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="4"/>
@@ -5098,7 +5328,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C54" t="str">
         <f>C34</f>
@@ -5114,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="4"/>
@@ -5130,7 +5360,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="4"/>
@@ -5146,7 +5376,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="4"/>
@@ -5162,7 +5392,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="4"/>
@@ -5178,7 +5408,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="4"/>
@@ -5194,7 +5424,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="4"/>
@@ -5210,7 +5440,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="4"/>
@@ -5222,11 +5452,11 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" ref="A62:A121" si="5">A52</f>
+        <f t="shared" ref="A62:A125" si="5">A52</f>
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="4"/>
@@ -5242,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="4"/>
@@ -5258,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="4"/>
@@ -5274,7 +5504,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="4"/>
@@ -5290,7 +5520,7 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="4"/>
@@ -5306,7 +5536,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="4"/>
@@ -5322,7 +5552,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="4"/>
@@ -5338,7 +5568,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="4"/>
@@ -5354,7 +5584,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="4"/>
@@ -5370,7 +5600,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="4"/>
@@ -5386,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="4"/>
@@ -5402,7 +5632,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="4"/>
@@ -5418,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="4"/>
@@ -5434,7 +5664,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="4"/>
@@ -5450,7 +5680,7 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="4"/>
@@ -5466,7 +5696,7 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="4"/>
@@ -5482,7 +5712,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="4"/>
@@ -5498,7 +5728,7 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="4"/>
@@ -5514,7 +5744,7 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="4"/>
@@ -5530,7 +5760,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="4"/>
@@ -5546,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="4"/>
@@ -5562,7 +5792,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="4"/>
@@ -5578,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="4"/>
@@ -5594,7 +5824,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="4"/>
@@ -5610,7 +5840,7 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="4"/>
@@ -5626,7 +5856,7 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="4"/>
@@ -5642,7 +5872,7 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="4"/>
@@ -5658,7 +5888,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
@@ -5674,7 +5904,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
@@ -5690,7 +5920,7 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
@@ -5706,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
@@ -5722,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
@@ -5738,7 +5968,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="4"/>
@@ -5754,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
@@ -5770,7 +6000,7 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
@@ -5786,7 +6016,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="4"/>
@@ -5802,7 +6032,7 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="4"/>
@@ -5818,7 +6048,7 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="4"/>
@@ -5834,7 +6064,7 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="4"/>
@@ -5850,7 +6080,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="4"/>
@@ -5866,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="4"/>
@@ -5882,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="4"/>
@@ -5898,7 +6128,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="4"/>
@@ -5914,7 +6144,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="4"/>
@@ -5930,10 +6160,10 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" ref="C106:C121" si="6">C86</f>
+        <f t="shared" ref="C106:C161" si="6">C86</f>
         <v>A</v>
       </c>
       <c r="D106">
@@ -5946,7 +6176,7 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="6"/>
@@ -5962,7 +6192,7 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="6"/>
@@ -5978,7 +6208,7 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="6"/>
@@ -5994,7 +6224,7 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="6"/>
@@ -6010,7 +6240,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="6"/>
@@ -6026,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="6"/>
@@ -6042,7 +6272,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="6"/>
@@ -6058,7 +6288,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="6"/>
@@ -6074,7 +6304,7 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="6"/>
@@ -6090,7 +6320,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="6"/>
@@ -6106,7 +6336,7 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="6"/>
@@ -6122,7 +6352,7 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="6"/>
@@ -6138,7 +6368,7 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="6"/>
@@ -6154,7 +6384,7 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="6"/>
@@ -6170,13 +6400,653 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="D121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D122">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D123">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D124">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D125">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f t="shared" ref="A126:A161" si="7">A116</f>
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D126">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D127">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D133">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D135">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D139">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D140">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D142">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>46</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>46</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>46</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>46</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D149">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>46</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>46</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>46</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D152">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D153">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>46</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D156">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>46</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D157">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D158">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>46</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D159">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>46</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D160">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>46</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D161">
         <v>-1</v>
       </c>
     </row>
@@ -6187,10 +7057,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81C51A-1511-417C-9AC3-4EF2A66959D1}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6257,22 +7127,42 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/imports/vpl-fnl_pjt_data.xlsx
+++ b/imports/vpl-fnl_pjt_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roder\source\year 4 repos\HCI-FNL_PJT\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858AC0D-2256-411B-BEBC-8A21F9C3EC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5DF5E5-717A-4432-968C-CA826B1C7464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12048" yWindow="1032" windowWidth="7500" windowHeight="11112" activeTab="3" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
+    <workbookView xWindow="12048" yWindow="1032" windowWidth="7500" windowHeight="11112" activeTab="2" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -247,18 +247,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,696 +747,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DA4086-D66D-4A32-8F38-A033B2F7B296}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8">
         <v>31.895</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
         <v>9</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="8">
+        <v>3</v>
+      </c>
+      <c r="H2" s="23">
         <f>G2/F2</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>102.792</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>35</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="23">
         <f>G3/F3</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
         <v>144.64099999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="8">
         <v>16</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="23">
         <f t="shared" ref="H4:H21" si="0">G4/F4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>35.966999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>10</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
         <v>83.334000000000003</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>12</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>12</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>240.61199999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
         <v>47.143000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>9</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>64.253</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>8</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="25">
         <v>36.023000000000003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="25">
         <v>6</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="25">
         <v>10</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="25">
         <v>6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="26">
         <f>G10/F10*100</f>
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="29">
         <v>31.962</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="29">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="29">
         <v>12</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="29">
         <v>2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="30">
         <f t="shared" ref="H11" si="1">G11/F11*100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>50.634</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <v>15</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>71</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <v>15</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="23">
         <f t="shared" si="0"/>
         <v>0.21126760563380281</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
         <v>27.974</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>36</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="23">
         <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>15.811</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>7</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>7</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8">
         <v>12.699</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>8</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>8</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>28.516999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>7</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="8">
         <v>7</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="20">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8">
         <v>22.797000000000001</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="8">
         <v>7</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="8">
         <v>7</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="8">
         <v>7</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="20">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>24.518000000000001</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <v>7</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <v>25</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <v>7</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="23">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="20">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8">
         <v>28.576000000000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="8">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>8</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="8">
         <v>2</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="23">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="20">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>23.035</v>
       </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8">
         <v>5</v>
       </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="23">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11">
         <v>46.078000000000003</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <v>5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="11">
         <v>32</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="11">
         <v>5</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="27">
         <f t="shared" si="0"/>
         <v>0.15625</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1274,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD3DC0-0BAB-4632-81BA-A01285DC1771}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,3197 +1461,3197 @@
     <col min="2" max="2" width="75.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
+      <c r="C11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <f t="shared" ref="A13:A19" si="1">A3</f>
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>-1</v>
+      <c r="D17" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>-1</v>
+      <c r="D18" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>-1</v>
+      <c r="D19" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <f>A10</f>
         <v>9</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
         <f>A11</f>
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>-1</v>
+      <c r="D21" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <f t="shared" ref="A22:A85" si="2">A12</f>
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="5" t="str">
         <f>C2</f>
         <v>A</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="8" t="str">
         <f t="shared" ref="C23:C86" si="3">C3</f>
         <v>A</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D24" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D25" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D26" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D27">
-        <v>-1</v>
+      <c r="C27" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D28">
-        <v>-1</v>
+      <c r="C28" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D29">
-        <v>-1</v>
+      <c r="C29" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
+      <c r="C30" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="13">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D31">
-        <v>-1</v>
+      <c r="C31" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D31" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D32" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="A33" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D33" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="A34" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D34" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="A35" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D35" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="A36" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D36" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="A37" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D37">
-        <v>-1</v>
+      <c r="C37" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="A38" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D38">
-        <v>-1</v>
+      <c r="C38" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="A39" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D39">
-        <v>-1</v>
+      <c r="C39" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+      <c r="A40" s="7">
         <f>A30</f>
         <v>9</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C40" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+      <c r="C40" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C41" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D41">
-        <v>-1</v>
+      <c r="C41" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D41" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C42" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D42" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+      <c r="A43" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C43" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D43" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+      <c r="A44" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C44" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D44" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+      <c r="A45" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D45" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+      <c r="A46" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C46" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D46" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+      <c r="A47" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C47" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D47">
-        <v>-1</v>
+      <c r="C47" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+      <c r="A48" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
+      <c r="C48" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D48" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+      <c r="A49" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D49">
-        <v>-1</v>
+      <c r="C49" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D49" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+      <c r="A50" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D50">
-        <v>-1</v>
+      <c r="C50" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D50" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+      <c r="A51" s="13">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C51" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D51">
-        <v>-1</v>
+      <c r="C51" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C52" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D52" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+      <c r="A53" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C53" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D53" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+      <c r="A54" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C54" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D54" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C55" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D55" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
+      <c r="A56" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C56" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D56" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
+      <c r="A57" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C57" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D57">
-        <v>-1</v>
+      <c r="C57" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D57" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
+      <c r="A58" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C58" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D58">
-        <v>-1</v>
+      <c r="C58" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D58" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
+      <c r="A59" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C59" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D59">
-        <v>-1</v>
+      <c r="C59" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D59" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
+      <c r="A60" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C60" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D60">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
+      <c r="C60" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D60" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C61" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D61">
-        <v>-1</v>
+      <c r="C61" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C62" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D62">
+      <c r="C62" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D62" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
+      <c r="A63" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D63" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="A64" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C64" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D64" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
+      <c r="A65" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C65" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D65" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
+      <c r="A66" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C66" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D66" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
+      <c r="A67" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C67" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D67">
-        <v>-1</v>
+      <c r="C67" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
+      <c r="A68" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C68" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D68">
-        <v>-1</v>
+      <c r="C68" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
+      <c r="A69" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C69" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D69">
-        <v>-1</v>
+      <c r="C69" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="5">
+      <c r="A70" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C70" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D70">
-        <v>-1</v>
+      <c r="C70" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
+      <c r="A71" s="13">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C71" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D71">
-        <v>-1</v>
+      <c r="C71" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D71" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5">
+      <c r="A72" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C72" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D72">
+      <c r="C72" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D72" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
+      <c r="A73" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C73" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D73" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5">
+      <c r="A74" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C74" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D74">
+      <c r="C74" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D74" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="5">
+      <c r="A75" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C75" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D75" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
+      <c r="A76" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C76" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D76">
+      <c r="C76" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D76" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="5">
+      <c r="A77" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C77" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D77">
-        <v>-1</v>
+      <c r="C77" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="5">
+      <c r="A78" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C78" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D78">
-        <v>-1</v>
+      <c r="C78" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="5">
+      <c r="A79" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C79" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D79">
-        <v>-1</v>
+      <c r="C79" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="5">
+      <c r="A80" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C80" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D80">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
+      <c r="C80" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C81" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D81">
-        <v>-1</v>
+      <c r="C81" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C82" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D82" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
+      <c r="A83" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C83" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D83" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="5">
+      <c r="A84" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C84" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D84" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="5">
+      <c r="A85" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C85" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D85" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
+      <c r="A86" s="7">
         <f t="shared" ref="A86:A149" si="4">A76</f>
         <v>5</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C86" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D86" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="5">
+      <c r="A87" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87" s="8" t="str">
         <f t="shared" ref="C87:C150" si="5">C67</f>
         <v>A</v>
       </c>
-      <c r="D87">
-        <v>-1</v>
+      <c r="D87" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="5">
+      <c r="A88" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C88" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D88">
-        <v>-1</v>
+      <c r="C88" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D88" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="5">
+      <c r="A89" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C89" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D89">
-        <v>-1</v>
+      <c r="C89" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D89" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="5">
+      <c r="A90" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C90" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D90">
-        <v>-1</v>
+      <c r="C90" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D90" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="5">
+      <c r="A91" s="13">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C91" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D91">
-        <v>-1</v>
+      <c r="C91" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D91" s="15">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="5">
+      <c r="A92" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C92" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D92">
+      <c r="C92" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D92" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="5">
+      <c r="A93" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C93" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D93" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C94" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D94">
+      <c r="C94" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D94" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C95" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D95" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="5">
+      <c r="A96" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C96" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D96">
+      <c r="C96" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D96" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="5">
+      <c r="A97" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C97" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D97">
-        <v>-1</v>
+      <c r="C97" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D97" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
+      <c r="A98" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C98" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D98">
-        <v>-1</v>
+      <c r="C98" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D98" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="5">
+      <c r="A99" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C99" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D99">
-        <v>-1</v>
+      <c r="C99" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D99" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="5">
+      <c r="A100" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C100" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D100">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="5">
+      <c r="C100" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D100" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="10">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C101" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D101">
-        <v>-1</v>
+      <c r="C101" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D101" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C102" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D102">
+      <c r="C102" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D102" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="5">
+      <c r="A103" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C103" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D103" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="A104" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C104" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D104">
+      <c r="C104" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D104" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="A105" s="7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C105" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D105">
+      <c r="C105" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D105" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="5">
+      <c r="A106" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C106" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D106">
+      <c r="C106" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D106" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="5">
+      <c r="A107" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C107" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D107">
-        <v>-1</v>
+      <c r="C107" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D107" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
+      <c r="A108" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C108" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D108">
-        <v>-1</v>
+      <c r="C108" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="5">
+      <c r="A109" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C109" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D109">
-        <v>-1</v>
+      <c r="C109" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D109" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
+      <c r="A110" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C110" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D110">
-        <v>-1</v>
+      <c r="C110" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D110" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="5">
+      <c r="A111" s="13">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C111" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D111">
-        <v>-1</v>
+      <c r="C111" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D111" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="5">
+      <c r="A112" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C112" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D112">
+      <c r="C112" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D112" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
+      <c r="A113" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C113" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D113">
+      <c r="C113" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D113" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="A114" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C114" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D114">
+      <c r="C114" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D114" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="A115" s="7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C115" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D115">
+      <c r="C115" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D115" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="5">
+      <c r="A116" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C116" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D116">
+      <c r="C116" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D116" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="5">
+      <c r="A117" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C117" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D117">
-        <v>-1</v>
+      <c r="C117" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D117" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
+      <c r="A118" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C118" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D118">
-        <v>-1</v>
+      <c r="C118" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D118" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="5">
+      <c r="A119" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C119" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D119">
-        <v>-1</v>
+      <c r="C119" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D119" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="5">
+      <c r="A120" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C120" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D120">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="5">
+      <c r="C120" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D120" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="10">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C121" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D121">
-        <v>-1</v>
+      <c r="C121" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D121" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C122" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D122">
+      <c r="C122" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D122" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="5">
+      <c r="A123" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C123" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D123">
+      <c r="C123" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D123" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="A124" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C124" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D124">
+      <c r="C124" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D124" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="A125" s="7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C125" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D125">
+      <c r="C125" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D125" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="5">
+      <c r="A126" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C126" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D126">
+      <c r="C126" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D126" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="5">
+      <c r="A127" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C127" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D127">
-        <v>-1</v>
+      <c r="C127" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D127" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="5">
+      <c r="A128" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C128" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D128">
-        <v>-1</v>
+      <c r="C128" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D128" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="5">
+      <c r="A129" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C129" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D129">
-        <v>-1</v>
+      <c r="C129" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D129" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="5">
+      <c r="A130" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C130" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D130">
-        <v>-1</v>
+      <c r="C130" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D130" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="5">
+      <c r="A131" s="13">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C131" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D131">
-        <v>-1</v>
+      <c r="C131" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D131" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="5">
+      <c r="A132" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C132" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D132">
+      <c r="C132" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D132" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="5">
+      <c r="A133" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C133" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D133">
+      <c r="C133" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D133" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="A134" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C134" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D134">
+      <c r="C134" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D134" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="A135" s="7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C135" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D135">
+      <c r="C135" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D135" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="5">
+      <c r="A136" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C136" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D136">
+      <c r="C136" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D136" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="5">
+      <c r="A137" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C137" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D137">
-        <v>-1</v>
+      <c r="C137" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D137" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="5">
+      <c r="A138" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C138" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D138">
-        <v>-1</v>
+      <c r="C138" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D138" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="5">
+      <c r="A139" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C139" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D139">
-        <v>-1</v>
+      <c r="C139" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D139" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="5">
+      <c r="A140" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C140" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D140">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="5">
+      <c r="C140" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D140" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="10">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C141" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="D141">
-        <v>-1</v>
+      <c r="C141" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="5">
+      <c r="A142" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C142" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D142">
+      <c r="C142" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D142" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="5">
+      <c r="A143" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C143" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D143">
+      <c r="C143" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D143" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="A144" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C144" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D144">
+      <c r="C144" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D144" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="A145" s="7">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C145" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D145">
+      <c r="C145" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D145" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="5">
+      <c r="A146" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C146" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D146">
+      <c r="C146" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D146" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="5">
+      <c r="A147" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C147" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D147">
-        <v>-1</v>
+      <c r="C147" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D147" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="5">
+      <c r="A148" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C148" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D148">
-        <v>-1</v>
+      <c r="C148" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D148" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="5">
+      <c r="A149" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C149" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D149">
-        <v>-1</v>
+      <c r="C149" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D149" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="5">
+      <c r="A150" s="7">
         <f t="shared" ref="A150:A201" si="6">A140</f>
         <v>9</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C150" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="D150">
-        <v>-1</v>
+      <c r="C150" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="D150" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="5">
+      <c r="A151" s="13">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C151" t="str">
+      <c r="C151" s="14" t="str">
         <f t="shared" ref="C151:C201" si="7">C131</f>
         <v>A</v>
       </c>
-      <c r="D151">
-        <v>-1</v>
+      <c r="D151" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="5">
+      <c r="A152" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C152" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D152">
+      <c r="C152" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D152" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="5">
+      <c r="A153" s="7">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C153" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D153">
+      <c r="C153" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D153" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="5">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="A154" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C154" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D154">
+      <c r="C154" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D154" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="5">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="A155" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C155" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D155">
+      <c r="C155" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D155" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="5">
+      <c r="A156" s="7">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C156" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D156">
+      <c r="C156" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D156" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="5">
+      <c r="A157" s="7">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C157" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D157">
-        <v>-1</v>
+      <c r="C157" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D157" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="5">
+      <c r="A158" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C158" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D158">
-        <v>-1</v>
+      <c r="C158" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D158" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="5">
+      <c r="A159" s="7">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C159" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D159">
-        <v>-1</v>
+      <c r="C159" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D159" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="5">
+      <c r="A160" s="7">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C160" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D160">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="5">
+      <c r="C160" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D160" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="10">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C161" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D161">
-        <v>-1</v>
+      <c r="C161" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D161" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="5">
+      <c r="A162" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C162" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D162">
+      <c r="C162" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D162" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="5">
+      <c r="A163" s="7">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C163" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D163">
+      <c r="C163" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D163" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="5">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="A164" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B164" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C164" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D164">
+      <c r="C164" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D164" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="5">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="A165" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C165" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D165">
+      <c r="C165" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D165" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="5">
+      <c r="A166" s="7">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C166" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D166">
+      <c r="C166" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D166" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="5">
+      <c r="A167" s="7">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C167" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D167">
-        <v>-1</v>
+      <c r="C167" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D167" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="5">
+      <c r="A168" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C168" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D168">
-        <v>-1</v>
+      <c r="C168" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D168" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="5">
+      <c r="A169" s="7">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C169" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D169">
-        <v>-1</v>
+      <c r="C169" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D169" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="5">
+      <c r="A170" s="7">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C170" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D170">
-        <v>-1</v>
+      <c r="C170" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D170" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="5">
+      <c r="A171" s="13">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C171" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D171">
-        <v>-1</v>
+      <c r="C171" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D171" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="5">
+      <c r="A172" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C172" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D172">
+      <c r="C172" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D172" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="5">
+      <c r="A173" s="7">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C173" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D173">
+      <c r="C173" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D173" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="5">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="B174" t="s">
+      <c r="A174" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B174" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C174" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D174">
+      <c r="C174" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D174" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="5">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B175" t="s">
+      <c r="A175" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C175" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D175">
+      <c r="C175" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D175" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="5">
+      <c r="A176" s="7">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C176" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D176">
+      <c r="C176" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D176" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="5">
+      <c r="A177" s="7">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C177" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D177">
-        <v>-1</v>
+      <c r="C177" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D177" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="5">
+      <c r="A178" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C178" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D178">
-        <v>-1</v>
+      <c r="C178" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D178" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="5">
+      <c r="A179" s="7">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C179" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D179">
-        <v>-1</v>
+      <c r="C179" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D179" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="5">
+      <c r="A180" s="7">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C180" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D180">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="5">
+      <c r="C180" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D180" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="10">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C181" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D181">
-        <v>-1</v>
+      <c r="C181" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D181" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="5">
+      <c r="A182" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C182" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D182">
+      <c r="C182" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D182" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="5">
+      <c r="A183" s="7">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C183" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D183">
+      <c r="C183" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D183" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="5">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="B184" t="s">
+      <c r="A184" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B184" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C184" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D184">
+      <c r="C184" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D184" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="5">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="A185" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B185" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C185" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D185">
+      <c r="C185" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D185" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="5">
+      <c r="A186" s="7">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C186" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D186">
+      <c r="C186" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D186" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="5">
+      <c r="A187" s="7">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C187" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D187">
-        <v>-1</v>
+      <c r="C187" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D187" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="5">
+      <c r="A188" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C188" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D188">
-        <v>-1</v>
+      <c r="C188" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D188" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="5">
+      <c r="A189" s="7">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C189" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D189">
-        <v>-1</v>
+      <c r="C189" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D189" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="5">
+      <c r="A190" s="7">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C190" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D190">
-        <v>-1</v>
+      <c r="C190" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D190" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="5">
+      <c r="A191" s="13">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C191" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="D191">
-        <v>-1</v>
+      <c r="C191" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="D191" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="5">
+      <c r="A192" s="7">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C192" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D192">
+      <c r="C192" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D192" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="5">
+      <c r="A193" s="7">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C193" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D193">
+      <c r="C193" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D193" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="5">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="A194" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B194" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C194" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D194">
+      <c r="C194" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D194" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="5">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="A195" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B195" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C195" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D195">
+      <c r="C195" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D195" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="5">
+      <c r="A196" s="7">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C196" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D196">
+      <c r="C196" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D196" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="5">
+      <c r="A197" s="7">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C197" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D197">
-        <v>-1</v>
+      <c r="C197" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D197" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="5">
+      <c r="A198" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C198" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D198">
-        <v>-1</v>
+      <c r="C198" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D198" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="5">
+      <c r="A199" s="7">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C199" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D199">
-        <v>-1</v>
+      <c r="C199" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D199" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="5">
+      <c r="A200" s="7">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C200" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D200">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="5">
+      <c r="C200" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D200" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="10">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C201" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="D201">
-        <v>-1</v>
+      <c r="C201" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="D201" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4486,8 +4663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6155F0-D76B-402B-AB6F-C6589B98D823}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4496,2558 +4673,2558 @@
     <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="20">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="20">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="22">
         <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
+      <c r="C11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="20">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="20">
         <f t="shared" ref="A13:A60" si="1">A3</f>
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>-1</v>
+      <c r="D17" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>-1</v>
+      <c r="D18" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>-1</v>
+      <c r="D19" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="20">
         <f>A10</f>
         <v>9</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="D20" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21">
         <f>A11</f>
         <v>10</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="11" t="str">
         <f t="shared" ref="B21" si="2">B15</f>
         <v>01. I enjoyed playing the game.</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>-1</v>
+      <c r="D21" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="5" t="str">
         <f>C2</f>
         <v>A</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="8" t="str">
         <f t="shared" ref="C23:C40" si="3">C3</f>
         <v>A</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D24" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D25" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D26" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D27">
-        <v>-1</v>
+      <c r="C27" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D28">
-        <v>-1</v>
+      <c r="C28" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D28" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D29">
-        <v>-1</v>
+      <c r="C29" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D29" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
+      <c r="C30" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D30" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="D31">
-        <v>-1</v>
+      <c r="C31" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="D31" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D32" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D33" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D34" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D35" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D36" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D37">
-        <v>-1</v>
+      <c r="C37" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D37" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D38">
-        <v>-1</v>
+      <c r="C38" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D38" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D39">
-        <v>-1</v>
+      <c r="C39" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D39" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="D40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="C40" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="D40" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="21">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="11" t="str">
         <f>C21</f>
         <v>B</v>
       </c>
-      <c r="D41">
-        <v>-1</v>
+      <c r="D41" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" s="5" t="str">
         <f t="shared" ref="C42:C105" si="4">C22</f>
         <v>A</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D43" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C44" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D44" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D45" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C46" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D46" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C47" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D47">
-        <v>-1</v>
+      <c r="C47" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
+      <c r="C48" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D48" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D49">
-        <v>-1</v>
+      <c r="C49" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D49" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D50">
-        <v>-1</v>
+      <c r="C50" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D50" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C51" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D51">
-        <v>-1</v>
+      <c r="C51" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D51" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C52" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D52" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C53" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D53" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" s="8" t="str">
         <f>C34</f>
         <v>B</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C55" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D55" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C56" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D56" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C57" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D57">
-        <v>-1</v>
+      <c r="C57" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D57" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C58" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D58">
-        <v>-1</v>
+      <c r="C58" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D58" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C59" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D59">
-        <v>-1</v>
+      <c r="C59" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D59" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C60" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D60">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="C60" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D60" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="21">
         <f>A51</f>
         <v>10</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C61" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D61">
-        <v>-1</v>
+      <c r="C61" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="19">
         <f t="shared" ref="A62:A125" si="5">A52</f>
         <v>1</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C62" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D62">
+      <c r="C62" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D62" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="20">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D63" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C64" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D64" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C65" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D65" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="20">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C66" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D66" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="20">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C67" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D67">
-        <v>-1</v>
+      <c r="C67" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D67" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="20">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C68" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D68">
-        <v>-1</v>
+      <c r="C68" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D68" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="20">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C69" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D69">
-        <v>-1</v>
+      <c r="C69" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D69" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="20">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C70" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D70">
-        <v>-1</v>
+      <c r="C70" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D70" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="22">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C71" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D71">
-        <v>-1</v>
+      <c r="C71" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D71" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="20">
         <f>A62</f>
         <v>1</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C72" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D72">
+      <c r="C72" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D72" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="20">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C73" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D73" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="A74" s="20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C74" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D74">
+      <c r="C74" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D74" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C75" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D75" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="20">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C76" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D76">
+      <c r="C76" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D76" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="20">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C77" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D77">
-        <v>-1</v>
+      <c r="C77" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D77" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="20">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C78" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D78">
-        <v>-1</v>
+      <c r="C78" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D78" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="20">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C79" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D79">
-        <v>-1</v>
+      <c r="C79" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D79" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="20">
         <f>A70</f>
         <v>9</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C80" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D80">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="C80" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D80" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="21">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C81" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D81">
-        <v>-1</v>
+      <c r="C81" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D81" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C82" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D82" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="20">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C83" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D83" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" s="20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C84" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D84" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C85" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D85" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="20">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C86" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D86" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="20">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C87" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D87">
-        <v>-1</v>
+      <c r="C87" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="20">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C88" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D88">
-        <v>-1</v>
+      <c r="C88" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D88" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="20">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C89" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D89">
-        <v>-1</v>
+      <c r="C89" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D89" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="20">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C90" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D90">
-        <v>-1</v>
+      <c r="C90" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D90" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="22">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C91" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D91">
-        <v>-1</v>
+      <c r="C91" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D91" s="15">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="20">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C92" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D92">
+      <c r="C92" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D92" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" s="20">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C93" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D93" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" s="20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C94" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D94">
+      <c r="C94" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D94" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C95" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D95" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="A96" s="20">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C96" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D96">
+      <c r="C96" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D96" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="A97" s="20">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C97" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D97">
-        <v>-1</v>
+      <c r="C97" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D97" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="A98" s="20">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C98" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D98">
-        <v>-1</v>
+      <c r="C98" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D98" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="A99" s="20">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C99" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D99">
-        <v>-1</v>
+      <c r="C99" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D99" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="A100" s="20">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C100" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D100">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="C100" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D100" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="21">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C101" t="str">
-        <f t="shared" si="4"/>
-        <v>B</v>
-      </c>
-      <c r="D101">
-        <v>-1</v>
+      <c r="C101" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="D101" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="A102" s="19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C102" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D102">
+      <c r="C102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D102" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="A103" s="20">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C103" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D103" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="A104" s="20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C104" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D104">
+      <c r="C104" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D104" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="A105" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C105" t="str">
-        <f t="shared" si="4"/>
-        <v>A</v>
-      </c>
-      <c r="D105">
+      <c r="C105" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="D105" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="A106" s="20">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C106" s="8" t="str">
         <f t="shared" ref="C106:C161" si="6">C86</f>
         <v>A</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="A107" s="20">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C107" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D107">
-        <v>-1</v>
+      <c r="C107" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D107" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="A108" s="20">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C108" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D108">
-        <v>-1</v>
+      <c r="C108" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D108" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="A109" s="20">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C109" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D109">
-        <v>-1</v>
+      <c r="C109" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D109" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="A110" s="20">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C110" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D110">
-        <v>-1</v>
+      <c r="C110" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D110" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="22">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C111" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D111">
-        <v>-1</v>
+      <c r="C111" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D111" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="A112" s="20">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C112" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D112">
+      <c r="C112" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D112" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="A113" s="20">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C113" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D113">
+      <c r="C113" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D113" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="A114" s="20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C114" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D114">
+      <c r="C114" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D114" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="A115" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C115" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D115">
+      <c r="C115" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D115" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="A116" s="20">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C116" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D116">
+      <c r="C116" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D116" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="A117" s="20">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C117" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D117">
-        <v>-1</v>
+      <c r="C117" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D117" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="A118" s="20">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C118" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D118">
-        <v>-1</v>
+      <c r="C118" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D118" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="A119" s="20">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C119" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D119">
-        <v>-1</v>
+      <c r="C119" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D119" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="A120" s="20">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C120" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D120">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="C120" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D120" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="20">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C121" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D121">
-        <v>-1</v>
+      <c r="C121" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D121" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" s="19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C122" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D122">
+      <c r="C122" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D122" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="A123" s="20">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C123" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D123">
+      <c r="C123" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D123" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="A124" s="20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C124" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D124">
+      <c r="C124" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D124" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="A125" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C125" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D125">
+      <c r="C125" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D125" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="A126" s="20">
         <f t="shared" ref="A126:A161" si="7">A116</f>
         <v>5</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C126" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D126">
+      <c r="C126" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D126" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="A127" s="20">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C127" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D127">
-        <v>-1</v>
+      <c r="C127" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D127" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="A128" s="20">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C128" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D128">
-        <v>-1</v>
+      <c r="C128" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D128" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" s="20">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C129" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D129">
-        <v>-1</v>
+      <c r="C129" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D129" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="A130" s="20">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C130" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D130">
-        <v>-1</v>
+      <c r="C130" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D130" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" s="22">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C131" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D131">
-        <v>-1</v>
+      <c r="C131" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D131" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="A132" s="20">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C132" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D132">
+      <c r="C132" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D132" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="A133" s="20">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C133" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D133">
+      <c r="C133" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D133" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="A134" s="20">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C134" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D134">
+      <c r="C134" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D134" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="A135" s="20">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C135" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D135">
+      <c r="C135" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D135" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="A136" s="20">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C136" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D136">
+      <c r="C136" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D136" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="20">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C137" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D137">
-        <v>-1</v>
+      <c r="C137" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D137" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="A138" s="20">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C138" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D138">
-        <v>-1</v>
+      <c r="C138" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D138" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="A139" s="20">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C139" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D139">
-        <v>-1</v>
+      <c r="C139" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D139" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="A140" s="20">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C140" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D140">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="C140" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D140" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="21">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C141" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D141">
-        <v>-1</v>
+      <c r="C141" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="A142" s="19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C142" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D142">
+      <c r="C142" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D142" s="6">
         <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="A143" s="20">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C143" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D143">
+      <c r="C143" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D143" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="A144" s="20">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C144" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D144">
+      <c r="C144" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D144" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="A145" s="20">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C145" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D145">
+      <c r="C145" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D145" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="A146" s="20">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C146" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D146">
+      <c r="C146" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D146" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="A147" s="20">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C147" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D147">
-        <v>-1</v>
+      <c r="C147" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D147" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="A148" s="20">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C148" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D148">
-        <v>-1</v>
+      <c r="C148" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D148" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="A149" s="20">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C149" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D149">
-        <v>-1</v>
+      <c r="C149" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D149" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="A150" s="20">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C150" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D150">
-        <v>-1</v>
+      <c r="C150" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D150" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="A151" s="22">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C151" t="str">
-        <f t="shared" si="6"/>
-        <v>A</v>
-      </c>
-      <c r="D151">
-        <v>-1</v>
+      <c r="C151" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D151" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="A152" s="20">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C152" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D152">
+      <c r="C152" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D152" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="A153" s="20">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C153" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D153">
+      <c r="C153" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D153" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="A154" s="20">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C154" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D154">
+      <c r="C154" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D154" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="A155" s="20">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C155" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D155">
+      <c r="C155" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D155" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="A156" s="20">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C156" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D156">
+      <c r="C156" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D156" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="A157" s="20">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C157" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D157">
-        <v>-1</v>
+      <c r="C157" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D157" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="A158" s="20">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C158" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D158">
-        <v>-1</v>
+      <c r="C158" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D158" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="A159" s="20">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C159" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D159">
-        <v>-1</v>
+      <c r="C159" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D159" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="A160" s="20">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C160" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D160">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="C160" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D160" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="21">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C161" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="D161">
-        <v>-1</v>
+      <c r="C161" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D161" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7059,14 +7236,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81C51A-1511-417C-9AC3-4EF2A66959D1}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7081,12 +7258,12 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7106,7 +7283,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7141,7 +7318,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/imports/vpl-fnl_pjt_data.xlsx
+++ b/imports/vpl-fnl_pjt_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roder\source\year 4 repos\HCI-FNL_PJT\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E059C47-2986-4F91-94DF-70DEE98DFCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49627DB7-A24E-483F-9154-741E73329891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
+    <workbookView xWindow="12048" yWindow="1032" windowWidth="7500" windowHeight="11112" activeTab="2" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -225,18 +225,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -431,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,13 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -471,6 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,7 +778,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,57 +1037,57 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="25">
-        <v>36.023000000000003</v>
-      </c>
-      <c r="E10" s="25">
-        <v>6</v>
-      </c>
-      <c r="F10" s="25">
-        <v>10</v>
-      </c>
-      <c r="G10" s="25">
-        <v>6</v>
-      </c>
-      <c r="H10" s="26">
-        <f>G10/F10*100</f>
-        <v>60</v>
+      <c r="B10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="26">
+        <v>57.912999999999997</v>
+      </c>
+      <c r="E10" s="26">
+        <v>11</v>
+      </c>
+      <c r="F10" s="26">
+        <v>86</v>
+      </c>
+      <c r="G10" s="26">
+        <v>11</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12790697674418605</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="29">
-        <v>31.962</v>
-      </c>
-      <c r="E11" s="29">
-        <v>2</v>
-      </c>
-      <c r="F11" s="29">
-        <v>12</v>
-      </c>
-      <c r="G11" s="29">
-        <v>2</v>
-      </c>
-      <c r="H11" s="30">
-        <f t="shared" ref="H11" si="1">G11/F11*100</f>
-        <v>16.666666666666664</v>
+      <c r="D11" s="27">
+        <v>89.174999999999997</v>
+      </c>
+      <c r="E11" s="27">
+        <v>7</v>
+      </c>
+      <c r="F11" s="27">
+        <v>32</v>
+      </c>
+      <c r="G11" s="27">
+        <v>7</v>
+      </c>
+      <c r="H11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1366,7 +1355,7 @@
       <c r="G21" s="11">
         <v>5</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="24">
         <f t="shared" si="0"/>
         <v>0.15625</v>
       </c>
@@ -1490,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD3DC0-0BAB-4632-81BA-A01285DC1771}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,7 +1511,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1540,7 +1529,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1558,7 +1547,7 @@
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1576,7 +1565,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1594,7 +1583,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1604,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1612,7 +1601,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1630,7 +1619,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1648,7 +1637,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1666,7 +1655,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1684,7 +1673,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -1702,7 +1691,7 @@
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="B12" s="32" t="str">
+      <c r="B12" s="26" t="str">
         <f>B2</f>
         <v>A-&gt;B</v>
       </c>
@@ -1721,7 +1710,7 @@
         <f t="shared" ref="A13:B19" si="1">A3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="32" t="str">
+      <c r="B13" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -1740,7 +1729,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B14" s="32" t="str">
+      <c r="B14" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -1759,7 +1748,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B15" s="32" t="str">
+      <c r="B15" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -1778,7 +1767,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B16" s="32" t="str">
+      <c r="B16" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -1789,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1797,7 +1786,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B17" s="32" t="str">
+      <c r="B17" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -1816,7 +1805,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B18" s="32" t="str">
+      <c r="B18" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -1835,7 +1824,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B19" s="32" t="str">
+      <c r="B19" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -1854,7 +1843,7 @@
         <f>A10</f>
         <v>9</v>
       </c>
-      <c r="B20" s="32" t="str">
+      <c r="B20" s="26" t="str">
         <f t="shared" ref="B20:B83" si="2">B10</f>
         <v>B-&gt;A</v>
       </c>
@@ -1873,7 +1862,7 @@
         <f>A11</f>
         <v>10</v>
       </c>
-      <c r="B21" s="34" t="str">
+      <c r="B21" s="28" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -1892,7 +1881,7 @@
         <f t="shared" ref="A22:B85" si="3">A12</f>
         <v>1</v>
       </c>
-      <c r="B22" s="32" t="str">
+      <c r="B22" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -1912,7 +1901,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B23" s="32" t="str">
+      <c r="B23" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -1932,7 +1921,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B24" s="32" t="str">
+      <c r="B24" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -1952,7 +1941,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B25" s="32" t="str">
+      <c r="B25" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -1972,7 +1961,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B26" s="32" t="str">
+      <c r="B26" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -1984,7 +1973,7 @@
         <v>A</v>
       </c>
       <c r="E26" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1992,7 +1981,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B27" s="32" t="str">
+      <c r="B27" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2012,7 +2001,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B28" s="32" t="str">
+      <c r="B28" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2032,7 +2021,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B29" s="32" t="str">
+      <c r="B29" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2052,7 +2041,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B30" s="32" t="str">
+      <c r="B30" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2072,7 +2061,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B31" s="33" t="str">
+      <c r="B31" s="27" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2092,7 +2081,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B32" s="32" t="str">
+      <c r="B32" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2112,7 +2101,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B33" s="32" t="str">
+      <c r="B33" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2132,7 +2121,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B34" s="32" t="str">
+      <c r="B34" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2152,7 +2141,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B35" s="32" t="str">
+      <c r="B35" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2172,7 +2161,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B36" s="32" t="str">
+      <c r="B36" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2184,7 +2173,7 @@
         <v>B</v>
       </c>
       <c r="E36" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2192,7 +2181,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B37" s="32" t="str">
+      <c r="B37" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2212,7 +2201,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B38" s="32" t="str">
+      <c r="B38" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2232,7 +2221,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B39" s="32" t="str">
+      <c r="B39" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2252,7 +2241,7 @@
         <f>A30</f>
         <v>9</v>
       </c>
-      <c r="B40" s="32" t="str">
+      <c r="B40" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2272,7 +2261,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B41" s="32" t="str">
+      <c r="B41" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2292,7 +2281,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B42" s="31" t="str">
+      <c r="B42" s="25" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2312,7 +2301,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B43" s="32" t="str">
+      <c r="B43" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2332,7 +2321,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B44" s="32" t="str">
+      <c r="B44" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2352,7 +2341,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B45" s="32" t="str">
+      <c r="B45" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2372,7 +2361,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B46" s="32" t="str">
+      <c r="B46" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2384,7 +2373,7 @@
         <v>A</v>
       </c>
       <c r="E46" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2392,7 +2381,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B47" s="32" t="str">
+      <c r="B47" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2412,7 +2401,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B48" s="32" t="str">
+      <c r="B48" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2432,7 +2421,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B49" s="32" t="str">
+      <c r="B49" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2452,7 +2441,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B50" s="32" t="str">
+      <c r="B50" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2472,7 +2461,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B51" s="33" t="str">
+      <c r="B51" s="27" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2492,7 +2481,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B52" s="32" t="str">
+      <c r="B52" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2512,7 +2501,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B53" s="32" t="str">
+      <c r="B53" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2532,7 +2521,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B54" s="32" t="str">
+      <c r="B54" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2552,7 +2541,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B55" s="32" t="str">
+      <c r="B55" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2572,7 +2561,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B56" s="32" t="str">
+      <c r="B56" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2584,7 +2573,7 @@
         <v>B</v>
       </c>
       <c r="E56" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2592,7 +2581,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B57" s="32" t="str">
+      <c r="B57" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2612,7 +2601,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B58" s="32" t="str">
+      <c r="B58" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2632,7 +2621,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B59" s="32" t="str">
+      <c r="B59" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2652,7 +2641,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B60" s="32" t="str">
+      <c r="B60" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2672,7 +2661,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B61" s="34" t="str">
+      <c r="B61" s="28" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2692,7 +2681,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B62" s="32" t="str">
+      <c r="B62" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2712,7 +2701,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B63" s="32" t="str">
+      <c r="B63" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2732,7 +2721,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B64" s="32" t="str">
+      <c r="B64" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2752,7 +2741,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B65" s="32" t="str">
+      <c r="B65" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2772,7 +2761,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B66" s="32" t="str">
+      <c r="B66" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2784,7 +2773,7 @@
         <v>A</v>
       </c>
       <c r="E66" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2792,7 +2781,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B67" s="32" t="str">
+      <c r="B67" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2812,7 +2801,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B68" s="32" t="str">
+      <c r="B68" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2832,7 +2821,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B69" s="32" t="str">
+      <c r="B69" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2852,7 +2841,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B70" s="32" t="str">
+      <c r="B70" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2872,7 +2861,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B71" s="33" t="str">
+      <c r="B71" s="27" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -2892,7 +2881,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B72" s="32" t="str">
+      <c r="B72" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2912,7 +2901,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B73" s="32" t="str">
+      <c r="B73" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2932,7 +2921,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B74" s="32" t="str">
+      <c r="B74" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2952,7 +2941,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B75" s="32" t="str">
+      <c r="B75" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2972,7 +2961,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B76" s="32" t="str">
+      <c r="B76" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -2984,7 +2973,7 @@
         <v>B</v>
       </c>
       <c r="E76" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2992,7 +2981,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B77" s="32" t="str">
+      <c r="B77" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -3012,7 +3001,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B78" s="32" t="str">
+      <c r="B78" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -3032,7 +3021,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B79" s="32" t="str">
+      <c r="B79" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -3052,7 +3041,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B80" s="32" t="str">
+      <c r="B80" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -3072,7 +3061,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B81" s="32" t="str">
+      <c r="B81" s="26" t="str">
         <f t="shared" si="2"/>
         <v>B-&gt;A</v>
       </c>
@@ -3092,7 +3081,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B82" s="31" t="str">
+      <c r="B82" s="25" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -3112,7 +3101,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B83" s="32" t="str">
+      <c r="B83" s="26" t="str">
         <f t="shared" si="2"/>
         <v>A-&gt;B</v>
       </c>
@@ -3132,7 +3121,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B84" s="32" t="str">
+      <c r="B84" s="26" t="str">
         <f t="shared" si="3"/>
         <v>A-&gt;B</v>
       </c>
@@ -3152,7 +3141,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B85" s="32" t="str">
+      <c r="B85" s="26" t="str">
         <f t="shared" si="3"/>
         <v>A-&gt;B</v>
       </c>
@@ -3172,7 +3161,7 @@
         <f t="shared" ref="A86:B149" si="5">A76</f>
         <v>5</v>
       </c>
-      <c r="B86" s="32" t="str">
+      <c r="B86" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3184,7 +3173,7 @@
         <v>A</v>
       </c>
       <c r="E86" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3192,7 +3181,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B87" s="32" t="str">
+      <c r="B87" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3212,7 +3201,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B88" s="32" t="str">
+      <c r="B88" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3232,7 +3221,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B89" s="32" t="str">
+      <c r="B89" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3252,7 +3241,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B90" s="32" t="str">
+      <c r="B90" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3272,7 +3261,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B91" s="33" t="str">
+      <c r="B91" s="27" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3292,7 +3281,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B92" s="32" t="str">
+      <c r="B92" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3312,7 +3301,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B93" s="32" t="str">
+      <c r="B93" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3332,7 +3321,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B94" s="32" t="str">
+      <c r="B94" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3352,7 +3341,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B95" s="32" t="str">
+      <c r="B95" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3372,7 +3361,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B96" s="32" t="str">
+      <c r="B96" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3384,7 +3373,7 @@
         <v>B</v>
       </c>
       <c r="E96" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3392,7 +3381,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B97" s="32" t="str">
+      <c r="B97" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3412,7 +3401,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B98" s="32" t="str">
+      <c r="B98" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3432,7 +3421,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B99" s="32" t="str">
+      <c r="B99" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3452,7 +3441,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B100" s="32" t="str">
+      <c r="B100" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3472,7 +3461,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B101" s="34" t="str">
+      <c r="B101" s="28" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3492,7 +3481,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B102" s="31" t="str">
+      <c r="B102" s="25" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3512,7 +3501,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B103" s="32" t="str">
+      <c r="B103" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3532,7 +3521,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B104" s="32" t="str">
+      <c r="B104" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3552,7 +3541,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B105" s="32" t="str">
+      <c r="B105" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3572,7 +3561,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B106" s="32" t="str">
+      <c r="B106" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3584,7 +3573,7 @@
         <v>A</v>
       </c>
       <c r="E106" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3592,7 +3581,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B107" s="32" t="str">
+      <c r="B107" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3612,7 +3601,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B108" s="32" t="str">
+      <c r="B108" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3632,7 +3621,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B109" s="32" t="str">
+      <c r="B109" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3652,7 +3641,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B110" s="32" t="str">
+      <c r="B110" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3672,7 +3661,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B111" s="33" t="str">
+      <c r="B111" s="27" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3692,7 +3681,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B112" s="32" t="str">
+      <c r="B112" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3712,7 +3701,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B113" s="32" t="str">
+      <c r="B113" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3732,7 +3721,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B114" s="32" t="str">
+      <c r="B114" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3752,7 +3741,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B115" s="32" t="str">
+      <c r="B115" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3772,7 +3761,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B116" s="32" t="str">
+      <c r="B116" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3784,7 +3773,7 @@
         <v>B</v>
       </c>
       <c r="E116" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3792,7 +3781,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B117" s="32" t="str">
+      <c r="B117" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3812,7 +3801,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B118" s="32" t="str">
+      <c r="B118" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3832,7 +3821,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B119" s="32" t="str">
+      <c r="B119" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3852,7 +3841,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B120" s="32" t="str">
+      <c r="B120" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3872,7 +3861,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B121" s="34" t="str">
+      <c r="B121" s="28" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -3892,7 +3881,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B122" s="31" t="str">
+      <c r="B122" s="25" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3912,7 +3901,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B123" s="32" t="str">
+      <c r="B123" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3932,7 +3921,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B124" s="32" t="str">
+      <c r="B124" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3952,7 +3941,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B125" s="32" t="str">
+      <c r="B125" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3972,7 +3961,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B126" s="32" t="str">
+      <c r="B126" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -3984,7 +3973,7 @@
         <v>A</v>
       </c>
       <c r="E126" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3992,7 +3981,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B127" s="32" t="str">
+      <c r="B127" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4012,7 +4001,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B128" s="32" t="str">
+      <c r="B128" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4032,7 +4021,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B129" s="32" t="str">
+      <c r="B129" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4052,7 +4041,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B130" s="32" t="str">
+      <c r="B130" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4072,7 +4061,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B131" s="33" t="str">
+      <c r="B131" s="27" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4092,7 +4081,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B132" s="32" t="str">
+      <c r="B132" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -4112,7 +4101,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B133" s="32" t="str">
+      <c r="B133" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -4132,7 +4121,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B134" s="32" t="str">
+      <c r="B134" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -4152,7 +4141,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B135" s="32" t="str">
+      <c r="B135" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -4172,7 +4161,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B136" s="32" t="str">
+      <c r="B136" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -4184,7 +4173,7 @@
         <v>B</v>
       </c>
       <c r="E136" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -4192,7 +4181,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B137" s="32" t="str">
+      <c r="B137" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4212,7 +4201,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B138" s="32" t="str">
+      <c r="B138" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4232,7 +4221,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B139" s="32" t="str">
+      <c r="B139" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4252,7 +4241,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B140" s="32" t="str">
+      <c r="B140" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4272,7 +4261,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B141" s="34" t="str">
+      <c r="B141" s="28" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4292,7 +4281,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="B142" s="32" t="str">
+      <c r="B142" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -4312,7 +4301,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B143" s="32" t="str">
+      <c r="B143" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -4332,7 +4321,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B144" s="32" t="str">
+      <c r="B144" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -4352,7 +4341,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B145" s="32" t="str">
+      <c r="B145" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -4372,7 +4361,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B146" s="32" t="str">
+      <c r="B146" s="26" t="str">
         <f t="shared" si="5"/>
         <v>A-&gt;B</v>
       </c>
@@ -4384,7 +4373,7 @@
         <v>A</v>
       </c>
       <c r="E146" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -4392,7 +4381,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B147" s="32" t="str">
+      <c r="B147" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4412,7 +4401,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B148" s="32" t="str">
+      <c r="B148" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4432,7 +4421,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B149" s="32" t="str">
+      <c r="B149" s="26" t="str">
         <f t="shared" si="5"/>
         <v>B-&gt;A</v>
       </c>
@@ -4452,7 +4441,7 @@
         <f t="shared" ref="A150:B201" si="7">A140</f>
         <v>9</v>
       </c>
-      <c r="B150" s="32" t="str">
+      <c r="B150" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4472,7 +4461,7 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B151" s="32" t="str">
+      <c r="B151" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4488,22 +4477,22 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="35">
+      <c r="A152" s="29">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="B152" s="36" t="str">
-        <f t="shared" si="7"/>
-        <v>A-&gt;B</v>
-      </c>
-      <c r="C152" s="37" t="s">
+      <c r="B152" s="30" t="str">
+        <f t="shared" si="7"/>
+        <v>A-&gt;B</v>
+      </c>
+      <c r="C152" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D152" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>B</v>
-      </c>
-      <c r="E152" s="38">
+      <c r="D152" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="E152" s="32">
         <v>-1</v>
       </c>
     </row>
@@ -4512,7 +4501,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="B153" s="32" t="str">
+      <c r="B153" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4532,7 +4521,7 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="B154" s="32" t="str">
+      <c r="B154" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4552,7 +4541,7 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="B155" s="32" t="str">
+      <c r="B155" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4572,7 +4561,7 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B156" s="32" t="str">
+      <c r="B156" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4584,7 +4573,7 @@
         <v>B</v>
       </c>
       <c r="E156" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -4592,7 +4581,7 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B157" s="32" t="str">
+      <c r="B157" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4612,7 +4601,7 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B158" s="32" t="str">
+      <c r="B158" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4632,7 +4621,7 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B159" s="32" t="str">
+      <c r="B159" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4652,7 +4641,7 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B160" s="32" t="str">
+      <c r="B160" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4672,7 +4661,7 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B161" s="34" t="str">
+      <c r="B161" s="28" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4692,7 +4681,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="B162" s="32" t="str">
+      <c r="B162" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4712,7 +4701,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="B163" s="32" t="str">
+      <c r="B163" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4732,7 +4721,7 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="B164" s="32" t="str">
+      <c r="B164" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4752,7 +4741,7 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="B165" s="32" t="str">
+      <c r="B165" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4772,7 +4761,7 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B166" s="32" t="str">
+      <c r="B166" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4784,7 +4773,7 @@
         <v>A</v>
       </c>
       <c r="E166" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -4792,7 +4781,7 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B167" s="32" t="str">
+      <c r="B167" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4812,7 +4801,7 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B168" s="32" t="str">
+      <c r="B168" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4832,7 +4821,7 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B169" s="32" t="str">
+      <c r="B169" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4852,7 +4841,7 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B170" s="32" t="str">
+      <c r="B170" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4872,7 +4861,7 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B171" s="33" t="str">
+      <c r="B171" s="27" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -4892,7 +4881,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="B172" s="32" t="str">
+      <c r="B172" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4912,7 +4901,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="B173" s="32" t="str">
+      <c r="B173" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4932,7 +4921,7 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="B174" s="32" t="str">
+      <c r="B174" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4952,7 +4941,7 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="B175" s="32" t="str">
+      <c r="B175" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4972,7 +4961,7 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B176" s="32" t="str">
+      <c r="B176" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -4984,7 +4973,7 @@
         <v>B</v>
       </c>
       <c r="E176" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -4992,7 +4981,7 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B177" s="32" t="str">
+      <c r="B177" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5012,7 +5001,7 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B178" s="32" t="str">
+      <c r="B178" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5032,7 +5021,7 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B179" s="32" t="str">
+      <c r="B179" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5052,7 +5041,7 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B180" s="32" t="str">
+      <c r="B180" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5072,7 +5061,7 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B181" s="32" t="str">
+      <c r="B181" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5092,7 +5081,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="B182" s="31" t="str">
+      <c r="B182" s="25" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -5112,7 +5101,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="B183" s="32" t="str">
+      <c r="B183" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -5132,7 +5121,7 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="B184" s="32" t="str">
+      <c r="B184" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -5152,7 +5141,7 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="B185" s="32" t="str">
+      <c r="B185" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -5172,7 +5161,7 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B186" s="32" t="str">
+      <c r="B186" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -5184,7 +5173,7 @@
         <v>A</v>
       </c>
       <c r="E186" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -5192,7 +5181,7 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B187" s="32" t="str">
+      <c r="B187" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5212,7 +5201,7 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B188" s="32" t="str">
+      <c r="B188" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5232,7 +5221,7 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B189" s="32" t="str">
+      <c r="B189" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5252,7 +5241,7 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B190" s="32" t="str">
+      <c r="B190" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5272,7 +5261,7 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B191" s="33" t="str">
+      <c r="B191" s="27" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5292,7 +5281,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="B192" s="32" t="str">
+      <c r="B192" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -5312,7 +5301,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="B193" s="32" t="str">
+      <c r="B193" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -5332,7 +5321,7 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="B194" s="32" t="str">
+      <c r="B194" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -5352,7 +5341,7 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="B195" s="32" t="str">
+      <c r="B195" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -5372,7 +5361,7 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B196" s="32" t="str">
+      <c r="B196" s="26" t="str">
         <f t="shared" si="7"/>
         <v>A-&gt;B</v>
       </c>
@@ -5384,7 +5373,7 @@
         <v>B</v>
       </c>
       <c r="E196" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -5392,7 +5381,7 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B197" s="32" t="str">
+      <c r="B197" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5412,7 +5401,7 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B198" s="32" t="str">
+      <c r="B198" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5432,7 +5421,7 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B199" s="32" t="str">
+      <c r="B199" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5452,7 +5441,7 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B200" s="32" t="str">
+      <c r="B200" s="26" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5472,7 +5461,7 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B201" s="34" t="str">
+      <c r="B201" s="28" t="str">
         <f t="shared" si="7"/>
         <v>B-&gt;A</v>
       </c>
@@ -5496,8 +5485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6155F0-D76B-402B-AB6F-C6589B98D823}">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5528,7 +5517,7 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -5546,7 +5535,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -5564,7 +5553,7 @@
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -5582,7 +5571,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -5600,7 +5589,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -5610,7 +5599,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5618,7 +5607,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -5636,7 +5625,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -5654,7 +5643,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -5672,7 +5661,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -5690,7 +5679,7 @@
         <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -5708,7 +5697,7 @@
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="B12" s="32" t="str">
+      <c r="B12" s="26" t="str">
         <f>B2</f>
         <v>A-&gt;B</v>
       </c>
@@ -5727,7 +5716,7 @@
         <f t="shared" ref="A13:B60" si="1">A3</f>
         <v>2</v>
       </c>
-      <c r="B13" s="32" t="str">
+      <c r="B13" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -5746,7 +5735,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B14" s="32" t="str">
+      <c r="B14" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -5765,7 +5754,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B15" s="32" t="str">
+      <c r="B15" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -5784,7 +5773,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B16" s="32" t="str">
+      <c r="B16" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -5795,7 +5784,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -5803,7 +5792,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B17" s="32" t="str">
+      <c r="B17" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -5822,7 +5811,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B18" s="32" t="str">
+      <c r="B18" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -5841,7 +5830,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B19" s="32" t="str">
+      <c r="B19" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -5860,7 +5849,7 @@
         <f>A10</f>
         <v>9</v>
       </c>
-      <c r="B20" s="32" t="str">
+      <c r="B20" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -5879,7 +5868,7 @@
         <f>A11</f>
         <v>10</v>
       </c>
-      <c r="B21" s="34" t="str">
+      <c r="B21" s="28" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -5899,7 +5888,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -5918,7 +5907,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -5937,7 +5926,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -5956,7 +5945,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5975,7 +5964,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -5986,7 +5975,7 @@
         <v>A</v>
       </c>
       <c r="E26" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -5994,7 +5983,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -6013,7 +6002,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -6032,7 +6021,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -6051,7 +6040,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -6070,7 +6059,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -6089,7 +6078,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B32" s="32" t="str">
+      <c r="B32" s="26" t="str">
         <f>B22</f>
         <v>A-&gt;B</v>
       </c>
@@ -6109,7 +6098,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B33" s="32" t="str">
+      <c r="B33" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -6129,7 +6118,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B34" s="32" t="str">
+      <c r="B34" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -6149,7 +6138,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B35" s="32" t="str">
+      <c r="B35" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -6169,7 +6158,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B36" s="32" t="str">
+      <c r="B36" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -6181,7 +6170,7 @@
         <v>B</v>
       </c>
       <c r="E36" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -6189,7 +6178,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B37" s="32" t="str">
+      <c r="B37" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -6209,7 +6198,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B38" s="32" t="str">
+      <c r="B38" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -6229,7 +6218,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B39" s="32" t="str">
+      <c r="B39" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -6249,7 +6238,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B40" s="32" t="str">
+      <c r="B40" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -6269,7 +6258,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B41" s="34" t="str">
+      <c r="B41" s="28" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -6289,7 +6278,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -6308,7 +6297,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -6327,7 +6316,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -6346,7 +6335,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -6365,7 +6354,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -6376,7 +6365,7 @@
         <v>A</v>
       </c>
       <c r="E46" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -6384,7 +6373,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -6403,7 +6392,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -6422,7 +6411,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -6441,7 +6430,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -6460,7 +6449,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -6479,7 +6468,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B52" s="32" t="str">
+      <c r="B52" s="26" t="str">
         <f>B42</f>
         <v>A-&gt;B</v>
       </c>
@@ -6499,7 +6488,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B53" s="32" t="str">
+      <c r="B53" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -6519,7 +6508,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B54" s="32" t="str">
+      <c r="B54" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -6539,7 +6528,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B55" s="32" t="str">
+      <c r="B55" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -6559,7 +6548,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B56" s="32" t="str">
+      <c r="B56" s="26" t="str">
         <f t="shared" si="1"/>
         <v>A-&gt;B</v>
       </c>
@@ -6571,7 +6560,7 @@
         <v>B</v>
       </c>
       <c r="E56" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -6579,7 +6568,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B57" s="32" t="str">
+      <c r="B57" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -6599,7 +6588,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B58" s="32" t="str">
+      <c r="B58" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -6619,7 +6608,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B59" s="32" t="str">
+      <c r="B59" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -6639,7 +6628,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B60" s="32" t="str">
+      <c r="B60" s="26" t="str">
         <f t="shared" si="1"/>
         <v>B-&gt;A</v>
       </c>
@@ -6659,7 +6648,7 @@
         <f>A51</f>
         <v>10</v>
       </c>
-      <c r="B61" s="34" t="str">
+      <c r="B61" s="28" t="str">
         <f t="shared" ref="B61" si="5">B51</f>
         <v>B-&gt;A</v>
       </c>
@@ -6679,7 +6668,7 @@
         <f t="shared" ref="A62:B125" si="6">A52</f>
         <v>1</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -6698,7 +6687,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -6717,7 +6706,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -6736,7 +6725,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -6755,7 +6744,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -6766,7 +6755,7 @@
         <v>A</v>
       </c>
       <c r="E66" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -6774,7 +6763,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -6793,7 +6782,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -6812,7 +6801,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -6831,7 +6820,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -6850,7 +6839,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -6869,7 +6858,7 @@
         <f>A62</f>
         <v>1</v>
       </c>
-      <c r="B72" s="32" t="str">
+      <c r="B72" s="26" t="str">
         <f>B62</f>
         <v>A-&gt;B</v>
       </c>
@@ -6889,7 +6878,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B73" s="32" t="str">
+      <c r="B73" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -6909,7 +6898,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="B74" s="32" t="str">
+      <c r="B74" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -6929,7 +6918,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B75" s="32" t="str">
+      <c r="B75" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -6949,7 +6938,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B76" s="32" t="str">
+      <c r="B76" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -6961,7 +6950,7 @@
         <v>B</v>
       </c>
       <c r="E76" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -6969,7 +6958,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B77" s="32" t="str">
+      <c r="B77" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -6989,7 +6978,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B78" s="32" t="str">
+      <c r="B78" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7009,7 +6998,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B79" s="32" t="str">
+      <c r="B79" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7029,7 +7018,7 @@
         <f>A70</f>
         <v>9</v>
       </c>
-      <c r="B80" s="32" t="str">
+      <c r="B80" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7049,7 +7038,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B81" s="34" t="str">
+      <c r="B81" s="28" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7069,7 +7058,7 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -7088,7 +7077,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -7107,7 +7096,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -7126,7 +7115,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -7145,7 +7134,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C86" s="8" t="s">
@@ -7156,7 +7145,7 @@
         <v>A</v>
       </c>
       <c r="E86" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -7164,7 +7153,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="8" t="s">
@@ -7183,7 +7172,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -7202,7 +7191,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -7221,7 +7210,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -7240,7 +7229,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -7259,7 +7248,7 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B92" s="32" t="str">
+      <c r="B92" s="26" t="str">
         <f>B82</f>
         <v>A-&gt;B</v>
       </c>
@@ -7279,7 +7268,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B93" s="32" t="str">
+      <c r="B93" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -7299,7 +7288,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="B94" s="32" t="str">
+      <c r="B94" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -7319,7 +7308,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B95" s="32" t="str">
+      <c r="B95" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -7339,7 +7328,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B96" s="32" t="str">
+      <c r="B96" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -7351,7 +7340,7 @@
         <v>B</v>
       </c>
       <c r="E96" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -7359,7 +7348,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B97" s="32" t="str">
+      <c r="B97" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7379,7 +7368,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B98" s="32" t="str">
+      <c r="B98" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7399,7 +7388,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B99" s="32" t="str">
+      <c r="B99" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7419,7 +7408,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B100" s="32" t="str">
+      <c r="B100" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7439,7 +7428,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B101" s="34" t="str">
+      <c r="B101" s="28" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7459,7 +7448,7 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -7478,7 +7467,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="8" t="s">
@@ -7497,7 +7486,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="8" t="s">
@@ -7516,7 +7505,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="8" t="s">
@@ -7535,7 +7524,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -7546,7 +7535,7 @@
         <v>A</v>
       </c>
       <c r="E106" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -7554,7 +7543,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C107" s="8" t="s">
@@ -7573,7 +7562,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="8" t="s">
@@ -7592,7 +7581,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -7611,7 +7600,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="8" t="s">
@@ -7630,7 +7619,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -7649,7 +7638,7 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B112" s="32" t="str">
+      <c r="B112" s="26" t="str">
         <f>B102</f>
         <v>A-&gt;B</v>
       </c>
@@ -7669,7 +7658,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B113" s="32" t="str">
+      <c r="B113" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -7689,7 +7678,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="B114" s="32" t="str">
+      <c r="B114" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -7709,7 +7698,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B115" s="32" t="str">
+      <c r="B115" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -7729,7 +7718,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B116" s="32" t="str">
+      <c r="B116" s="26" t="str">
         <f t="shared" si="6"/>
         <v>A-&gt;B</v>
       </c>
@@ -7741,7 +7730,7 @@
         <v>B</v>
       </c>
       <c r="E116" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -7749,7 +7738,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B117" s="32" t="str">
+      <c r="B117" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7769,7 +7758,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B118" s="32" t="str">
+      <c r="B118" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7789,7 +7778,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B119" s="32" t="str">
+      <c r="B119" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7809,7 +7798,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B120" s="32" t="str">
+      <c r="B120" s="26" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7829,7 +7818,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B121" s="34" t="str">
+      <c r="B121" s="28" t="str">
         <f t="shared" si="6"/>
         <v>B-&gt;A</v>
       </c>
@@ -7849,7 +7838,7 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C122" s="5" t="s">
@@ -7868,7 +7857,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B123" s="32" t="s">
+      <c r="B123" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -7887,7 +7876,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="B124" s="32" t="s">
+      <c r="B124" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -7906,7 +7895,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B125" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -7925,7 +7914,7 @@
         <f t="shared" ref="A126:B161" si="8">A116</f>
         <v>5</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -7936,7 +7925,7 @@
         <v>A</v>
       </c>
       <c r="E126" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -7944,7 +7933,7 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B127" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C127" s="8" t="s">
@@ -7963,7 +7952,7 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="B128" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -7982,7 +7971,7 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="B129" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C129" s="8" t="s">
@@ -8001,7 +7990,7 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="B130" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C130" s="8" t="s">
@@ -8020,7 +8009,7 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="B131" s="33" t="s">
+      <c r="B131" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -8039,7 +8028,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B132" s="32" t="str">
+      <c r="B132" s="26" t="str">
         <f>B122</f>
         <v>A-&gt;B</v>
       </c>
@@ -8059,7 +8048,7 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="B133" s="32" t="str">
+      <c r="B133" s="26" t="str">
         <f t="shared" si="8"/>
         <v>A-&gt;B</v>
       </c>
@@ -8079,7 +8068,7 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B134" s="32" t="str">
+      <c r="B134" s="26" t="str">
         <f t="shared" si="8"/>
         <v>A-&gt;B</v>
       </c>
@@ -8099,7 +8088,7 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B135" s="32" t="str">
+      <c r="B135" s="26" t="str">
         <f t="shared" si="8"/>
         <v>A-&gt;B</v>
       </c>
@@ -8119,7 +8108,7 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B136" s="32" t="str">
+      <c r="B136" s="26" t="str">
         <f t="shared" si="8"/>
         <v>A-&gt;B</v>
       </c>
@@ -8131,7 +8120,7 @@
         <v>B</v>
       </c>
       <c r="E136" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -8139,7 +8128,7 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B137" s="32" t="str">
+      <c r="B137" s="26" t="str">
         <f t="shared" si="8"/>
         <v>B-&gt;A</v>
       </c>
@@ -8159,7 +8148,7 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B138" s="32" t="str">
+      <c r="B138" s="26" t="str">
         <f t="shared" si="8"/>
         <v>B-&gt;A</v>
       </c>
@@ -8179,7 +8168,7 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="B139" s="32" t="str">
+      <c r="B139" s="26" t="str">
         <f t="shared" si="8"/>
         <v>B-&gt;A</v>
       </c>
@@ -8199,7 +8188,7 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B140" s="32" t="str">
+      <c r="B140" s="26" t="str">
         <f t="shared" si="8"/>
         <v>B-&gt;A</v>
       </c>
@@ -8219,7 +8208,7 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="B141" s="34" t="str">
+      <c r="B141" s="28" t="str">
         <f t="shared" si="8"/>
         <v>B-&gt;A</v>
       </c>
@@ -8239,7 +8228,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -8258,7 +8247,7 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="B143" s="32" t="s">
+      <c r="B143" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -8277,7 +8266,7 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="B144" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C144" s="8" t="s">
@@ -8296,7 +8285,7 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B145" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -8315,7 +8304,7 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="B146" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="8" t="s">
@@ -8326,7 +8315,7 @@
         <v>A</v>
       </c>
       <c r="E146" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -8334,7 +8323,7 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B147" s="32" t="s">
+      <c r="B147" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -8353,7 +8342,7 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B148" s="32" t="s">
+      <c r="B148" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -8372,7 +8361,7 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C149" s="8" t="s">
@@ -8391,7 +8380,7 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -8410,7 +8399,7 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="14" t="s">
@@ -8429,7 +8418,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B152" s="32" t="str">
+      <c r="B152" s="26" t="str">
         <f>B142</f>
         <v>A-&gt;B</v>
       </c>
@@ -8449,7 +8438,7 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="B153" s="32" t="str">
+      <c r="B153" s="26" t="str">
         <f t="shared" si="8"/>
         <v>A-&gt;B</v>
       </c>
@@ -8469,7 +8458,7 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B154" s="32" t="str">
+      <c r="B154" s="26" t="str">
         <f t="shared" si="8"/>
         <v>A-&gt;B</v>
       </c>
@@ -8489,7 +8478,7 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B155" s="32" t="str">
+      <c r="B155" s="26" t="str">
         <f t="shared" si="8"/>
         <v>A-&gt;B</v>
       </c>
@@ -8509,7 +8498,7 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B156" s="32" t="str">
+      <c r="B156" s="26" t="str">
         <f t="shared" si="8"/>
         <v>A-&gt;B</v>
       </c>
@@ -8521,7 +8510,7 @@
         <v>B</v>
       </c>
       <c r="E156" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -8529,7 +8518,7 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B157" s="32" t="str">
+      <c r="B157" s="26" t="str">
         <f t="shared" si="8"/>
         <v>B-&gt;A</v>
       </c>
@@ -8549,7 +8538,7 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B158" s="32" t="str">
+      <c r="B158" s="26" t="str">
         <f t="shared" si="8"/>
         <v>B-&gt;A</v>
       </c>
@@ -8569,7 +8558,7 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="B159" s="32" t="str">
+      <c r="B159" s="26" t="str">
         <f t="shared" si="8"/>
         <v>B-&gt;A</v>
       </c>
@@ -8589,7 +8578,7 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B160" s="32" t="str">
+      <c r="B160" s="26" t="str">
         <f t="shared" si="8"/>
         <v>B-&gt;A</v>
       </c>
@@ -8609,7 +8598,7 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="B161" s="34" t="str">
+      <c r="B161" s="28" t="str">
         <f t="shared" si="8"/>
         <v>B-&gt;A</v>
       </c>

--- a/imports/vpl-fnl_pjt_data.xlsx
+++ b/imports/vpl-fnl_pjt_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roder\source\year 4 repos\HCI-FNL_PJT\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49627DB7-A24E-483F-9154-741E73329891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF276324-C73F-49EC-AE70-1EF66FF77C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12048" yWindow="1032" windowWidth="7500" windowHeight="11112" activeTab="2" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{648EF0DD-0358-465E-A7D1-701403DC3CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1479,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD3DC0-0BAB-4632-81BA-A01285DC1771}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="H175" sqref="H175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1557,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1721,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1740,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1893,7 +1893,7 @@
         <v>A</v>
       </c>
       <c r="E22" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1913,7 +1913,7 @@
         <v>A</v>
       </c>
       <c r="E23" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,7 +1933,7 @@
         <v>A</v>
       </c>
       <c r="E24" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1953,7 +1953,7 @@
         <v>A</v>
       </c>
       <c r="E25" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2093,7 +2093,7 @@
         <v>B</v>
       </c>
       <c r="E32" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2113,7 +2113,7 @@
         <v>B</v>
       </c>
       <c r="E33" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2133,7 +2133,7 @@
         <v>B</v>
       </c>
       <c r="E34" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2153,7 +2153,7 @@
         <v>B</v>
       </c>
       <c r="E35" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
         <v>A</v>
       </c>
       <c r="E42" s="6">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2313,7 +2313,7 @@
         <v>A</v>
       </c>
       <c r="E43" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2333,7 +2333,7 @@
         <v>A</v>
       </c>
       <c r="E44" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2353,7 +2353,7 @@
         <v>A</v>
       </c>
       <c r="E45" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2493,7 +2493,7 @@
         <v>B</v>
       </c>
       <c r="E52" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2513,7 +2513,7 @@
         <v>B</v>
       </c>
       <c r="E53" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2533,7 +2533,7 @@
         <v>B</v>
       </c>
       <c r="E54" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2553,7 +2553,7 @@
         <v>B</v>
       </c>
       <c r="E55" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2693,7 +2693,7 @@
         <v>A</v>
       </c>
       <c r="E62" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2713,7 +2713,7 @@
         <v>A</v>
       </c>
       <c r="E63" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2733,7 +2733,7 @@
         <v>A</v>
       </c>
       <c r="E64" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2753,7 +2753,7 @@
         <v>A</v>
       </c>
       <c r="E65" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2893,7 +2893,7 @@
         <v>B</v>
       </c>
       <c r="E72" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2913,7 +2913,7 @@
         <v>B</v>
       </c>
       <c r="E73" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
         <v>B</v>
       </c>
       <c r="E74" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2953,7 +2953,7 @@
         <v>B</v>
       </c>
       <c r="E75" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3093,7 +3093,7 @@
         <v>A</v>
       </c>
       <c r="E82" s="6">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3113,7 +3113,7 @@
         <v>A</v>
       </c>
       <c r="E83" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3133,7 +3133,7 @@
         <v>A</v>
       </c>
       <c r="E84" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -3153,7 +3153,7 @@
         <v>A</v>
       </c>
       <c r="E85" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -3293,7 +3293,7 @@
         <v>B</v>
       </c>
       <c r="E92" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3313,7 +3313,7 @@
         <v>B</v>
       </c>
       <c r="E93" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3333,7 +3333,7 @@
         <v>B</v>
       </c>
       <c r="E94" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -3353,7 +3353,7 @@
         <v>B</v>
       </c>
       <c r="E95" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3493,7 +3493,7 @@
         <v>A</v>
       </c>
       <c r="E102" s="6">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3513,7 +3513,7 @@
         <v>A</v>
       </c>
       <c r="E103" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3533,7 +3533,7 @@
         <v>A</v>
       </c>
       <c r="E104" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3553,7 +3553,7 @@
         <v>A</v>
       </c>
       <c r="E105" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3693,7 +3693,7 @@
         <v>B</v>
       </c>
       <c r="E112" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3713,7 +3713,7 @@
         <v>B</v>
       </c>
       <c r="E113" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -3733,7 +3733,7 @@
         <v>B</v>
       </c>
       <c r="E114" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -3753,7 +3753,7 @@
         <v>B</v>
       </c>
       <c r="E115" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3893,7 +3893,7 @@
         <v>A</v>
       </c>
       <c r="E122" s="6">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3913,7 +3913,7 @@
         <v>A</v>
       </c>
       <c r="E123" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3933,7 +3933,7 @@
         <v>A</v>
       </c>
       <c r="E124" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3953,7 +3953,7 @@
         <v>A</v>
       </c>
       <c r="E125" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -4093,7 +4093,7 @@
         <v>B</v>
       </c>
       <c r="E132" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -4113,7 +4113,7 @@
         <v>B</v>
       </c>
       <c r="E133" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -4133,7 +4133,7 @@
         <v>B</v>
       </c>
       <c r="E134" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -4153,7 +4153,7 @@
         <v>B</v>
       </c>
       <c r="E135" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -4293,7 +4293,7 @@
         <v>A</v>
       </c>
       <c r="E142" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -4313,7 +4313,7 @@
         <v>A</v>
       </c>
       <c r="E143" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -4333,7 +4333,7 @@
         <v>A</v>
       </c>
       <c r="E144" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -4353,7 +4353,7 @@
         <v>A</v>
       </c>
       <c r="E145" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -4493,7 +4493,7 @@
         <v>B</v>
       </c>
       <c r="E152" s="32">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -4513,7 +4513,7 @@
         <v>B</v>
       </c>
       <c r="E153" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -4533,7 +4533,7 @@
         <v>B</v>
       </c>
       <c r="E154" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -4553,7 +4553,7 @@
         <v>B</v>
       </c>
       <c r="E155" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -4693,7 +4693,7 @@
         <v>A</v>
       </c>
       <c r="E162" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -4713,7 +4713,7 @@
         <v>A</v>
       </c>
       <c r="E163" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -4733,7 +4733,7 @@
         <v>A</v>
       </c>
       <c r="E164" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -4753,7 +4753,7 @@
         <v>A</v>
       </c>
       <c r="E165" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -4893,7 +4893,7 @@
         <v>B</v>
       </c>
       <c r="E172" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -4913,7 +4913,7 @@
         <v>B</v>
       </c>
       <c r="E173" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -4933,7 +4933,7 @@
         <v>B</v>
       </c>
       <c r="E174" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -4953,7 +4953,7 @@
         <v>B</v>
       </c>
       <c r="E175" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -5053,7 +5053,7 @@
         <v>B</v>
       </c>
       <c r="E180" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5093,7 +5093,7 @@
         <v>A</v>
       </c>
       <c r="E182" s="6">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -5113,7 +5113,7 @@
         <v>A</v>
       </c>
       <c r="E183" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -5133,7 +5133,7 @@
         <v>A</v>
       </c>
       <c r="E184" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -5153,7 +5153,7 @@
         <v>A</v>
       </c>
       <c r="E185" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -5293,7 +5293,7 @@
         <v>B</v>
       </c>
       <c r="E192" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -5313,7 +5313,7 @@
         <v>B</v>
       </c>
       <c r="E193" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -5333,7 +5333,7 @@
         <v>B</v>
       </c>
       <c r="E194" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -5353,7 +5353,7 @@
         <v>B</v>
       </c>
       <c r="E195" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -5485,8 +5485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6155F0-D76B-402B-AB6F-C6589B98D823}">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5527,7 +5527,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -5545,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -5563,7 +5563,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -5581,7 +5581,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -5708,7 +5708,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -5727,7 +5727,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -5746,7 +5746,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -5765,7 +5765,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -5899,7 +5899,7 @@
         <v>A</v>
       </c>
       <c r="E22" s="6">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -5918,7 +5918,7 @@
         <v>A</v>
       </c>
       <c r="E23" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -5937,7 +5937,7 @@
         <v>A</v>
       </c>
       <c r="E24" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -5956,7 +5956,7 @@
         <v>A</v>
       </c>
       <c r="E25" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -6090,7 +6090,7 @@
         <v>B</v>
       </c>
       <c r="E32" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -6110,7 +6110,7 @@
         <v>B</v>
       </c>
       <c r="E33" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -6130,7 +6130,7 @@
         <v>B</v>
       </c>
       <c r="E34" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -6150,7 +6150,7 @@
         <v>B</v>
       </c>
       <c r="E35" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -6289,7 +6289,7 @@
         <v>A</v>
       </c>
       <c r="E42" s="6">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -6308,7 +6308,7 @@
         <v>A</v>
       </c>
       <c r="E43" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -6327,7 +6327,7 @@
         <v>A</v>
       </c>
       <c r="E44" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -6346,7 +6346,7 @@
         <v>A</v>
       </c>
       <c r="E45" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -6480,7 +6480,7 @@
         <v>B</v>
       </c>
       <c r="E52" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -6500,7 +6500,7 @@
         <v>B</v>
       </c>
       <c r="E53" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -6520,7 +6520,7 @@
         <v>B</v>
       </c>
       <c r="E54" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -6540,7 +6540,7 @@
         <v>B</v>
       </c>
       <c r="E55" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -6679,7 +6679,7 @@
         <v>A</v>
       </c>
       <c r="E62" s="6">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -6698,7 +6698,7 @@
         <v>A</v>
       </c>
       <c r="E63" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -6717,7 +6717,7 @@
         <v>A</v>
       </c>
       <c r="E64" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -6736,7 +6736,7 @@
         <v>A</v>
       </c>
       <c r="E65" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -6870,7 +6870,7 @@
         <v>B</v>
       </c>
       <c r="E72" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -6890,7 +6890,7 @@
         <v>B</v>
       </c>
       <c r="E73" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -6910,7 +6910,7 @@
         <v>B</v>
       </c>
       <c r="E74" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -6930,7 +6930,7 @@
         <v>B</v>
       </c>
       <c r="E75" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -7069,7 +7069,7 @@
         <v>A</v>
       </c>
       <c r="E82" s="6">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -7088,7 +7088,7 @@
         <v>A</v>
       </c>
       <c r="E83" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -7107,7 +7107,7 @@
         <v>A</v>
       </c>
       <c r="E84" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -7126,7 +7126,7 @@
         <v>A</v>
       </c>
       <c r="E85" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -7260,7 +7260,7 @@
         <v>B</v>
       </c>
       <c r="E92" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -7280,7 +7280,7 @@
         <v>B</v>
       </c>
       <c r="E93" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -7300,7 +7300,7 @@
         <v>B</v>
       </c>
       <c r="E94" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -7320,7 +7320,7 @@
         <v>B</v>
       </c>
       <c r="E95" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -7459,7 +7459,7 @@
         <v>A</v>
       </c>
       <c r="E102" s="6">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -7478,7 +7478,7 @@
         <v>A</v>
       </c>
       <c r="E103" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -7497,7 +7497,7 @@
         <v>A</v>
       </c>
       <c r="E104" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -7516,7 +7516,7 @@
         <v>A</v>
       </c>
       <c r="E105" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -7650,7 +7650,7 @@
         <v>B</v>
       </c>
       <c r="E112" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -7670,7 +7670,7 @@
         <v>B</v>
       </c>
       <c r="E113" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -7690,7 +7690,7 @@
         <v>B</v>
       </c>
       <c r="E114" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -7710,7 +7710,7 @@
         <v>B</v>
       </c>
       <c r="E115" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -7849,7 +7849,7 @@
         <v>A</v>
       </c>
       <c r="E122" s="6">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -7868,7 +7868,7 @@
         <v>A</v>
       </c>
       <c r="E123" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -7887,7 +7887,7 @@
         <v>A</v>
       </c>
       <c r="E124" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -7906,7 +7906,7 @@
         <v>A</v>
       </c>
       <c r="E125" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -8040,7 +8040,7 @@
         <v>B</v>
       </c>
       <c r="E132" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -8060,7 +8060,7 @@
         <v>B</v>
       </c>
       <c r="E133" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -8080,7 +8080,7 @@
         <v>B</v>
       </c>
       <c r="E134" s="9">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -8100,7 +8100,7 @@
         <v>B</v>
       </c>
       <c r="E135" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -8239,7 +8239,7 @@
         <v>A</v>
       </c>
       <c r="E142" s="6">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -8258,7 +8258,7 @@
         <v>A</v>
       </c>
       <c r="E143" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -8277,7 +8277,7 @@
         <v>A</v>
       </c>
       <c r="E144" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -8296,7 +8296,7 @@
         <v>A</v>
       </c>
       <c r="E145" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -8430,7 +8430,7 @@
         <v>B</v>
       </c>
       <c r="E152" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -8450,7 +8450,7 @@
         <v>B</v>
       </c>
       <c r="E153" s="9">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -8470,7 +8470,7 @@
         <v>B</v>
       </c>
       <c r="E154" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -8490,7 +8490,7 @@
         <v>B</v>
       </c>
       <c r="E155" s="9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
